--- a/03.設計/詳細設計書_STB08（BFS）.xlsx
+++ b/03.設計/詳細設計書_STB08（BFS）.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micch\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micch\OneDrive\デスクトップ\PGP\03.設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14484" tabRatio="888"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13212" tabRatio="888"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="159" r:id="rId1"/>
@@ -1239,33 +1239,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>株式会社シスコム・テクノロジー</t>
-    <rPh sb="0" eb="4">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>開発一課</t>
-    <rPh sb="0" eb="2">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>田坂</t>
-    <rPh sb="0" eb="2">
-      <t>タサカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>フォーマット</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1285,6 +1258,24 @@
   </si>
   <si>
     <t>データベース</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社名</t>
+    <rPh sb="0" eb="2">
+      <t>シャメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部署</t>
+    <rPh sb="0" eb="2">
+      <t>ブショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TM</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1845,6 +1836,33 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1854,8 +1872,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1866,31 +1905,115 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1908,35 +2031,20 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1956,25 +2064,25 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1985,123 +2093,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2482,69 +2473,69 @@
     </row>
     <row r="6" spans="3:16" ht="49.2" customHeight="1">
       <c r="C6" s="7"/>
-      <c r="D6" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
+      <c r="D6" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="3:16" ht="49.2" customHeight="1">
       <c r="C7" s="7"/>
-      <c r="D7" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
+      <c r="D7" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="3:16" ht="22.5" customHeight="1" thickBot="1">
       <c r="C8" s="9"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="108"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="3:16" ht="22.5" customHeight="1" thickTop="1"/>
     <row r="11" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F11" s="110" t="s">
+      <c r="F11" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="111"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="53"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="62"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
     </row>
     <row r="12" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F12" s="110" t="s">
+      <c r="F12" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="111"/>
+      <c r="G12" s="59"/>
       <c r="H12" s="16"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
@@ -2554,56 +2545,56 @@
       <c r="N12" s="11"/>
     </row>
     <row r="13" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F13" s="110" t="s">
+      <c r="F13" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="111"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="62"/>
     </row>
     <row r="14" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F14" s="110" t="s">
+      <c r="F14" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="111"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="53"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="62"/>
     </row>
     <row r="15" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F15" s="110" t="s">
+      <c r="F15" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="111"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="53"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="62"/>
     </row>
     <row r="16" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F16" s="110" t="s">
+      <c r="F16" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="111"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="53"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="62"/>
       <c r="N16" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="17" spans="7:16" ht="22.5" customHeight="1">
       <c r="N17" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="7:16" ht="22.5" customHeight="1">
       <c r="N18" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="7:16" ht="22.5" customHeight="1">
@@ -2665,58 +2656,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="62" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
       <c r="P1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="63" t="str">
+      <c r="Q1" s="65" t="str">
         <f>D5</f>
-        <v>田坂</v>
-      </c>
-      <c r="R1" s="63"/>
+        <v>TM</v>
+      </c>
+      <c r="R1" s="65"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
       <c r="P2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="132">
+      <c r="Q2" s="66">
         <f>B5</f>
         <v>45180</v>
       </c>
-      <c r="R2" s="63"/>
+      <c r="R2" s="65"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="23"/>
@@ -2742,435 +2733,435 @@
       <c r="A4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64" t="s">
+      <c r="E4" s="67"/>
+      <c r="F4" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64" t="s">
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="25">
         <v>1</v>
       </c>
-      <c r="B5" s="58">
+      <c r="B5" s="68">
         <v>45180</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59" t="s">
+      <c r="C5" s="68"/>
+      <c r="D5" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="60" t="s">
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="26">
         <v>2</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="26">
         <v>3</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="26">
         <v>4</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="26">
         <v>5</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="26">
         <v>6</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="26">
         <v>7</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="26">
         <v>8</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="26">
         <v>9</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="26">
         <v>10</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="26">
         <v>11</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="26">
         <v>12</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="26">
         <v>13</v>
       </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="73"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="26">
         <v>14</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="73"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="26">
         <v>15</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="26">
         <v>16</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="26">
         <v>17</v>
       </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="73"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="26">
         <v>18</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="73"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1"/>
     <row r="24" spans="1:18" ht="27" customHeight="1"/>
@@ -3181,6 +3172,78 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:R21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:R22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:R19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:R20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:R17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:R18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:R11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:R12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:R9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:R10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:O2"/>
     <mergeCell ref="Q1:R1"/>
@@ -3189,78 +3252,6 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:R4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:R9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:R10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:R11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:R12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:R17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:R18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:R19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:R20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:R21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:R22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -3290,112 +3281,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="98" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="127" t="str">
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="77" t="str">
         <f>表紙!D6</f>
         <v>フォーマット</v>
       </c>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="128"/>
-      <c r="T1" s="128"/>
-      <c r="U1" s="128"/>
-      <c r="V1" s="128"/>
-      <c r="W1" s="128"/>
-      <c r="X1" s="129"/>
-      <c r="Y1" s="98" t="s">
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="93" t="str">
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="84" t="str">
         <f>更新履歴!D5</f>
-        <v>田坂</v>
-      </c>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93" t="s">
+        <v>TM</v>
+      </c>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="AF1" s="93"/>
-      <c r="AG1" s="109" t="str">
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="83" t="str">
         <f>VLOOKUP(MAX(更新履歴!B:B),更新履歴!B:D,3,FALSE)</f>
-        <v>田坂</v>
-      </c>
-      <c r="AH1" s="93"/>
-      <c r="AI1" s="93"/>
-      <c r="AJ1" s="93"/>
+        <v>TM</v>
+      </c>
+      <c r="AH1" s="84"/>
+      <c r="AI1" s="84"/>
+      <c r="AJ1" s="84"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1">
-      <c r="A2" s="103"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="98" t="s">
+      <c r="A2" s="89"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="113" t="str">
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="74" t="str">
         <f>RIGHT(表紙!D7,LEN(表紙!D7)-FIND("_",表紙!D7))</f>
         <v>サブシステム名</v>
       </c>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="130"/>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="131"/>
-      <c r="Y2" s="98" t="s">
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="99"/>
-      <c r="AA2" s="94">
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="85">
         <f>更新履歴!B5</f>
         <v>45180</v>
       </c>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="94"/>
-      <c r="AD2" s="94"/>
-      <c r="AE2" s="93" t="s">
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="94">
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="85">
         <f>MAX(更新履歴!B:B)</f>
         <v>45180</v>
       </c>
-      <c r="AH2" s="94"/>
-      <c r="AI2" s="94"/>
-      <c r="AJ2" s="94"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1">
       <c r="A3" s="38"/>
@@ -3432,7 +3423,7 @@
       <c r="A4" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="AC4" s="112"/>
+      <c r="AC4" s="52"/>
       <c r="AD4" s="27"/>
       <c r="AE4" s="27"/>
       <c r="AF4" s="27"/>
@@ -3448,13 +3439,13 @@
       <c r="H5" s="22"/>
       <c r="J5" s="21"/>
       <c r="Q5" s="22"/>
-      <c r="AC5" s="112"/>
-      <c r="AD5" s="112"/>
-      <c r="AE5" s="112"/>
-      <c r="AF5" s="112"/>
-      <c r="AG5" s="112"/>
-      <c r="AH5" s="112"/>
-      <c r="AI5" s="112"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="52"/>
+      <c r="AE5" s="52"/>
+      <c r="AF5" s="52"/>
+      <c r="AG5" s="52"/>
+      <c r="AH5" s="52"/>
+      <c r="AI5" s="52"/>
       <c r="AJ5" s="30"/>
     </row>
     <row r="6" spans="1:36" ht="15" customHeight="1">
@@ -3464,13 +3455,13 @@
       <c r="H6" s="22"/>
       <c r="J6" s="21"/>
       <c r="Q6" s="22"/>
-      <c r="AC6" s="112"/>
-      <c r="AD6" s="112"/>
-      <c r="AE6" s="112"/>
-      <c r="AF6" s="112"/>
-      <c r="AG6" s="112"/>
-      <c r="AH6" s="112"/>
-      <c r="AI6" s="112"/>
+      <c r="AC6" s="52"/>
+      <c r="AD6" s="52"/>
+      <c r="AE6" s="52"/>
+      <c r="AF6" s="52"/>
+      <c r="AG6" s="52"/>
+      <c r="AH6" s="52"/>
+      <c r="AI6" s="52"/>
       <c r="AJ6" s="30"/>
     </row>
     <row r="7" spans="1:36" ht="15" customHeight="1">
@@ -3491,13 +3482,13 @@
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
-      <c r="AC7" s="112"/>
-      <c r="AD7" s="112"/>
-      <c r="AE7" s="112"/>
-      <c r="AF7" s="112"/>
-      <c r="AG7" s="112"/>
-      <c r="AH7" s="112"/>
-      <c r="AI7" s="112"/>
+      <c r="AC7" s="52"/>
+      <c r="AD7" s="52"/>
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="52"/>
+      <c r="AG7" s="52"/>
+      <c r="AH7" s="52"/>
+      <c r="AI7" s="52"/>
       <c r="AJ7" s="30"/>
     </row>
     <row r="8" spans="1:36" ht="15" customHeight="1">
@@ -3557,13 +3548,13 @@
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
       <c r="Q9" s="21"/>
-      <c r="AC9" s="112"/>
-      <c r="AD9" s="112"/>
-      <c r="AE9" s="112"/>
-      <c r="AF9" s="112"/>
-      <c r="AG9" s="112"/>
-      <c r="AH9" s="112"/>
-      <c r="AI9" s="112"/>
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="52"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="52"/>
+      <c r="AH9" s="52"/>
+      <c r="AI9" s="52"/>
       <c r="AJ9" s="30"/>
     </row>
     <row r="10" spans="1:36" ht="15" customHeight="1">
@@ -3573,13 +3564,13 @@
       <c r="H10" s="21"/>
       <c r="J10" s="21"/>
       <c r="Q10" s="21"/>
-      <c r="AC10" s="112"/>
-      <c r="AD10" s="112"/>
-      <c r="AE10" s="112"/>
-      <c r="AF10" s="112"/>
-      <c r="AG10" s="112"/>
-      <c r="AH10" s="112"/>
-      <c r="AI10" s="112"/>
+      <c r="AC10" s="52"/>
+      <c r="AD10" s="52"/>
+      <c r="AE10" s="52"/>
+      <c r="AF10" s="52"/>
+      <c r="AG10" s="52"/>
+      <c r="AH10" s="52"/>
+      <c r="AI10" s="52"/>
       <c r="AJ10" s="30"/>
     </row>
     <row r="11" spans="1:36" ht="15" customHeight="1">
@@ -3589,13 +3580,13 @@
       <c r="H11" s="21"/>
       <c r="J11" s="21"/>
       <c r="Q11" s="21"/>
-      <c r="AC11" s="112"/>
-      <c r="AD11" s="112"/>
-      <c r="AE11" s="112"/>
-      <c r="AF11" s="112"/>
-      <c r="AG11" s="112"/>
-      <c r="AH11" s="112"/>
-      <c r="AI11" s="112"/>
+      <c r="AC11" s="52"/>
+      <c r="AD11" s="52"/>
+      <c r="AE11" s="52"/>
+      <c r="AF11" s="52"/>
+      <c r="AG11" s="52"/>
+      <c r="AH11" s="52"/>
+      <c r="AI11" s="52"/>
       <c r="AJ11" s="30"/>
     </row>
     <row r="12" spans="1:36" ht="15" customHeight="1">
@@ -3605,13 +3596,13 @@
       <c r="H12" s="21"/>
       <c r="J12" s="21"/>
       <c r="Q12" s="21"/>
-      <c r="AC12" s="112"/>
-      <c r="AD12" s="112"/>
-      <c r="AE12" s="112"/>
-      <c r="AF12" s="112"/>
-      <c r="AG12" s="112"/>
-      <c r="AH12" s="112"/>
-      <c r="AI12" s="112"/>
+      <c r="AC12" s="52"/>
+      <c r="AD12" s="52"/>
+      <c r="AE12" s="52"/>
+      <c r="AF12" s="52"/>
+      <c r="AG12" s="52"/>
+      <c r="AH12" s="52"/>
+      <c r="AI12" s="52"/>
       <c r="AJ12" s="30"/>
     </row>
     <row r="13" spans="1:36" ht="15" customHeight="1">
@@ -3619,13 +3610,13 @@
       <c r="B13" s="20"/>
       <c r="G13" s="20"/>
       <c r="H13" s="21"/>
-      <c r="AC13" s="112"/>
-      <c r="AD13" s="112"/>
-      <c r="AE13" s="112"/>
-      <c r="AF13" s="112"/>
-      <c r="AG13" s="112"/>
-      <c r="AH13" s="112"/>
-      <c r="AI13" s="112"/>
+      <c r="AC13" s="52"/>
+      <c r="AD13" s="52"/>
+      <c r="AE13" s="52"/>
+      <c r="AF13" s="52"/>
+      <c r="AG13" s="52"/>
+      <c r="AH13" s="52"/>
+      <c r="AI13" s="52"/>
       <c r="AJ13" s="30"/>
     </row>
     <row r="14" spans="1:36" ht="15" customHeight="1">
@@ -3633,7 +3624,7 @@
       <c r="B14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="21"/>
-      <c r="AC14" s="112"/>
+      <c r="AC14" s="52"/>
       <c r="AD14" s="33"/>
       <c r="AE14" s="33"/>
       <c r="AF14" s="33"/>
@@ -3644,7 +3635,7 @@
     </row>
     <row r="15" spans="1:36" ht="15" customHeight="1">
       <c r="A15" s="36" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
@@ -3675,13 +3666,13 @@
       <c r="AB15" s="27"/>
       <c r="AC15" s="40"/>
       <c r="AD15" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE15" s="112"/>
-      <c r="AF15" s="112"/>
-      <c r="AG15" s="112"/>
-      <c r="AH15" s="112"/>
-      <c r="AI15" s="112"/>
+        <v>96</v>
+      </c>
+      <c r="AE15" s="52"/>
+      <c r="AF15" s="52"/>
+      <c r="AG15" s="52"/>
+      <c r="AH15" s="52"/>
+      <c r="AI15" s="52"/>
       <c r="AJ15" s="30"/>
     </row>
     <row r="16" spans="1:36" ht="15" customHeight="1">
@@ -3691,11 +3682,11 @@
       <c r="H16" s="21"/>
       <c r="AC16" s="30"/>
       <c r="AD16" s="29"/>
-      <c r="AE16" s="112"/>
-      <c r="AF16" s="112"/>
-      <c r="AG16" s="112"/>
-      <c r="AH16" s="112"/>
-      <c r="AI16" s="112"/>
+      <c r="AE16" s="52"/>
+      <c r="AF16" s="52"/>
+      <c r="AG16" s="52"/>
+      <c r="AH16" s="52"/>
+      <c r="AI16" s="52"/>
       <c r="AJ16" s="30"/>
     </row>
     <row r="17" spans="1:36" ht="15" customHeight="1">
@@ -3706,11 +3697,11 @@
       <c r="H17" s="21"/>
       <c r="AC17" s="30"/>
       <c r="AD17" s="29"/>
-      <c r="AE17" s="112"/>
-      <c r="AF17" s="112"/>
-      <c r="AG17" s="112"/>
-      <c r="AH17" s="112"/>
-      <c r="AI17" s="112"/>
+      <c r="AE17" s="52"/>
+      <c r="AF17" s="52"/>
+      <c r="AG17" s="52"/>
+      <c r="AH17" s="52"/>
+      <c r="AI17" s="52"/>
       <c r="AJ17" s="30"/>
     </row>
     <row r="18" spans="1:36" ht="15" customHeight="1">
@@ -3721,11 +3712,11 @@
       <c r="H18" s="21"/>
       <c r="AC18" s="30"/>
       <c r="AD18" s="29"/>
-      <c r="AE18" s="112"/>
-      <c r="AF18" s="112"/>
-      <c r="AG18" s="112"/>
-      <c r="AH18" s="112"/>
-      <c r="AI18" s="112"/>
+      <c r="AE18" s="52"/>
+      <c r="AF18" s="52"/>
+      <c r="AG18" s="52"/>
+      <c r="AH18" s="52"/>
+      <c r="AI18" s="52"/>
       <c r="AJ18" s="30"/>
     </row>
     <row r="19" spans="1:36" ht="15" customHeight="1">
@@ -3735,11 +3726,11 @@
       <c r="H19" s="21"/>
       <c r="AC19" s="30"/>
       <c r="AD19" s="29"/>
-      <c r="AE19" s="112"/>
-      <c r="AF19" s="112"/>
-      <c r="AG19" s="112"/>
-      <c r="AH19" s="112"/>
-      <c r="AI19" s="112"/>
+      <c r="AE19" s="52"/>
+      <c r="AF19" s="52"/>
+      <c r="AG19" s="52"/>
+      <c r="AH19" s="52"/>
+      <c r="AI19" s="52"/>
       <c r="AJ19" s="30"/>
     </row>
     <row r="20" spans="1:36" ht="15" customHeight="1">
@@ -3749,11 +3740,11 @@
       <c r="H20" s="21"/>
       <c r="AC20" s="30"/>
       <c r="AD20" s="29"/>
-      <c r="AE20" s="112"/>
-      <c r="AF20" s="112"/>
-      <c r="AG20" s="112"/>
-      <c r="AH20" s="112"/>
-      <c r="AI20" s="112"/>
+      <c r="AE20" s="52"/>
+      <c r="AF20" s="52"/>
+      <c r="AG20" s="52"/>
+      <c r="AH20" s="52"/>
+      <c r="AI20" s="52"/>
       <c r="AJ20" s="30"/>
     </row>
     <row r="21" spans="1:36" ht="15" customHeight="1">
@@ -3763,11 +3754,11 @@
       <c r="H21" s="21"/>
       <c r="AC21" s="30"/>
       <c r="AD21" s="29"/>
-      <c r="AE21" s="112"/>
-      <c r="AF21" s="112"/>
-      <c r="AG21" s="112"/>
-      <c r="AH21" s="112"/>
-      <c r="AI21" s="112"/>
+      <c r="AE21" s="52"/>
+      <c r="AF21" s="52"/>
+      <c r="AG21" s="52"/>
+      <c r="AH21" s="52"/>
+      <c r="AI21" s="52"/>
       <c r="AJ21" s="30"/>
     </row>
     <row r="22" spans="1:36" ht="15" customHeight="1">
@@ -3777,11 +3768,11 @@
       <c r="H22" s="21"/>
       <c r="AC22" s="30"/>
       <c r="AD22" s="29"/>
-      <c r="AE22" s="112"/>
-      <c r="AF22" s="112"/>
-      <c r="AG22" s="112"/>
-      <c r="AH22" s="112"/>
-      <c r="AI22" s="112"/>
+      <c r="AE22" s="52"/>
+      <c r="AF22" s="52"/>
+      <c r="AG22" s="52"/>
+      <c r="AH22" s="52"/>
+      <c r="AI22" s="52"/>
       <c r="AJ22" s="30"/>
     </row>
     <row r="23" spans="1:36" ht="15" customHeight="1">
@@ -3791,11 +3782,11 @@
       <c r="H23" s="21"/>
       <c r="AC23" s="30"/>
       <c r="AD23" s="29"/>
-      <c r="AE23" s="112"/>
-      <c r="AF23" s="112"/>
-      <c r="AG23" s="112"/>
-      <c r="AH23" s="112"/>
-      <c r="AI23" s="112"/>
+      <c r="AE23" s="52"/>
+      <c r="AF23" s="52"/>
+      <c r="AG23" s="52"/>
+      <c r="AH23" s="52"/>
+      <c r="AI23" s="52"/>
       <c r="AJ23" s="30"/>
     </row>
     <row r="24" spans="1:36" ht="15" customHeight="1">
@@ -3809,11 +3800,11 @@
       <c r="H24" s="21"/>
       <c r="AC24" s="30"/>
       <c r="AD24" s="29"/>
-      <c r="AE24" s="112"/>
-      <c r="AF24" s="112"/>
-      <c r="AG24" s="112"/>
-      <c r="AH24" s="112"/>
-      <c r="AI24" s="112"/>
+      <c r="AE24" s="52"/>
+      <c r="AF24" s="52"/>
+      <c r="AG24" s="52"/>
+      <c r="AH24" s="52"/>
+      <c r="AI24" s="52"/>
       <c r="AJ24" s="30"/>
     </row>
     <row r="25" spans="1:36" ht="15" customHeight="1">
@@ -3823,22 +3814,22 @@
       <c r="H25" s="21"/>
       <c r="AC25" s="30"/>
       <c r="AD25" s="29"/>
-      <c r="AE25" s="112"/>
-      <c r="AF25" s="112"/>
-      <c r="AG25" s="112"/>
-      <c r="AH25" s="112"/>
-      <c r="AI25" s="112"/>
+      <c r="AE25" s="52"/>
+      <c r="AF25" s="52"/>
+      <c r="AG25" s="52"/>
+      <c r="AH25" s="52"/>
+      <c r="AI25" s="52"/>
       <c r="AJ25" s="30"/>
     </row>
     <row r="26" spans="1:36" ht="15" customHeight="1">
       <c r="A26" s="29"/>
       <c r="AC26" s="30"/>
       <c r="AD26" s="29"/>
-      <c r="AE26" s="112"/>
-      <c r="AF26" s="112"/>
-      <c r="AG26" s="112"/>
-      <c r="AH26" s="112"/>
-      <c r="AI26" s="112"/>
+      <c r="AE26" s="52"/>
+      <c r="AF26" s="52"/>
+      <c r="AG26" s="52"/>
+      <c r="AH26" s="52"/>
+      <c r="AI26" s="52"/>
       <c r="AJ26" s="30"/>
     </row>
     <row r="27" spans="1:36" ht="15" customHeight="1">
@@ -3846,11 +3837,11 @@
       <c r="B27" s="20"/>
       <c r="AC27" s="30"/>
       <c r="AD27" s="29"/>
-      <c r="AE27" s="112"/>
-      <c r="AF27" s="112"/>
-      <c r="AG27" s="112"/>
-      <c r="AH27" s="112"/>
-      <c r="AI27" s="112"/>
+      <c r="AE27" s="52"/>
+      <c r="AF27" s="52"/>
+      <c r="AG27" s="52"/>
+      <c r="AH27" s="52"/>
+      <c r="AI27" s="52"/>
       <c r="AJ27" s="30"/>
     </row>
     <row r="28" spans="1:36" ht="15" customHeight="1">
@@ -3858,11 +3849,11 @@
       <c r="B28" s="42"/>
       <c r="AC28" s="30"/>
       <c r="AD28" s="29"/>
-      <c r="AE28" s="112"/>
-      <c r="AF28" s="112"/>
-      <c r="AG28" s="112"/>
-      <c r="AH28" s="112"/>
-      <c r="AI28" s="112"/>
+      <c r="AE28" s="52"/>
+      <c r="AF28" s="52"/>
+      <c r="AG28" s="52"/>
+      <c r="AH28" s="52"/>
+      <c r="AI28" s="52"/>
       <c r="AJ28" s="30"/>
     </row>
     <row r="29" spans="1:36" ht="15" customHeight="1">
@@ -3870,11 +3861,11 @@
       <c r="B29" s="42"/>
       <c r="AC29" s="30"/>
       <c r="AD29" s="29"/>
-      <c r="AE29" s="112"/>
-      <c r="AF29" s="112"/>
-      <c r="AG29" s="112"/>
-      <c r="AH29" s="112"/>
-      <c r="AI29" s="112"/>
+      <c r="AE29" s="52"/>
+      <c r="AF29" s="52"/>
+      <c r="AG29" s="52"/>
+      <c r="AH29" s="52"/>
+      <c r="AI29" s="52"/>
       <c r="AJ29" s="30"/>
     </row>
     <row r="30" spans="1:36" ht="15" customHeight="1">
@@ -3882,33 +3873,33 @@
       <c r="B30" s="42"/>
       <c r="AC30" s="30"/>
       <c r="AD30" s="29"/>
-      <c r="AE30" s="112"/>
-      <c r="AF30" s="112"/>
-      <c r="AG30" s="112"/>
-      <c r="AH30" s="112"/>
-      <c r="AI30" s="112"/>
+      <c r="AE30" s="52"/>
+      <c r="AF30" s="52"/>
+      <c r="AG30" s="52"/>
+      <c r="AH30" s="52"/>
+      <c r="AI30" s="52"/>
       <c r="AJ30" s="30"/>
     </row>
     <row r="31" spans="1:36" ht="15" customHeight="1">
       <c r="A31" s="29"/>
       <c r="AC31" s="30"/>
       <c r="AD31" s="29"/>
-      <c r="AE31" s="112"/>
-      <c r="AF31" s="112"/>
-      <c r="AG31" s="112"/>
-      <c r="AH31" s="112"/>
-      <c r="AI31" s="112"/>
+      <c r="AE31" s="52"/>
+      <c r="AF31" s="52"/>
+      <c r="AG31" s="52"/>
+      <c r="AH31" s="52"/>
+      <c r="AI31" s="52"/>
       <c r="AJ31" s="30"/>
     </row>
     <row r="32" spans="1:36" ht="15" customHeight="1">
       <c r="A32" s="29"/>
       <c r="AC32" s="30"/>
       <c r="AD32" s="29"/>
-      <c r="AE32" s="112"/>
-      <c r="AF32" s="112"/>
-      <c r="AG32" s="112"/>
-      <c r="AH32" s="112"/>
-      <c r="AI32" s="112"/>
+      <c r="AE32" s="52"/>
+      <c r="AF32" s="52"/>
+      <c r="AG32" s="52"/>
+      <c r="AH32" s="52"/>
+      <c r="AI32" s="52"/>
       <c r="AJ32" s="30"/>
     </row>
     <row r="33" spans="1:36" ht="15" customHeight="1">
@@ -3916,158 +3907,158 @@
       <c r="B33" s="42"/>
       <c r="AC33" s="30"/>
       <c r="AD33" s="29"/>
-      <c r="AE33" s="112"/>
-      <c r="AF33" s="112"/>
-      <c r="AG33" s="112"/>
-      <c r="AH33" s="112"/>
-      <c r="AI33" s="112"/>
+      <c r="AE33" s="52"/>
+      <c r="AF33" s="52"/>
+      <c r="AG33" s="52"/>
+      <c r="AH33" s="52"/>
+      <c r="AI33" s="52"/>
       <c r="AJ33" s="30"/>
     </row>
     <row r="34" spans="1:36" ht="15" customHeight="1">
       <c r="A34" s="29"/>
       <c r="AC34" s="30"/>
       <c r="AD34" s="29"/>
-      <c r="AE34" s="112"/>
-      <c r="AF34" s="112"/>
-      <c r="AG34" s="112"/>
-      <c r="AH34" s="112"/>
-      <c r="AI34" s="112"/>
+      <c r="AE34" s="52"/>
+      <c r="AF34" s="52"/>
+      <c r="AG34" s="52"/>
+      <c r="AH34" s="52"/>
+      <c r="AI34" s="52"/>
       <c r="AJ34" s="30"/>
     </row>
     <row r="35" spans="1:36" ht="15" customHeight="1">
       <c r="A35" s="29"/>
       <c r="AC35" s="30"/>
       <c r="AD35" s="29"/>
-      <c r="AE35" s="112"/>
-      <c r="AF35" s="112"/>
-      <c r="AG35" s="112"/>
-      <c r="AH35" s="112"/>
-      <c r="AI35" s="112"/>
+      <c r="AE35" s="52"/>
+      <c r="AF35" s="52"/>
+      <c r="AG35" s="52"/>
+      <c r="AH35" s="52"/>
+      <c r="AI35" s="52"/>
       <c r="AJ35" s="30"/>
     </row>
     <row r="36" spans="1:36" ht="15" customHeight="1">
       <c r="A36" s="29"/>
       <c r="AC36" s="30"/>
       <c r="AD36" s="29"/>
-      <c r="AE36" s="112"/>
-      <c r="AF36" s="112"/>
-      <c r="AG36" s="112"/>
-      <c r="AH36" s="112"/>
-      <c r="AI36" s="112"/>
+      <c r="AE36" s="52"/>
+      <c r="AF36" s="52"/>
+      <c r="AG36" s="52"/>
+      <c r="AH36" s="52"/>
+      <c r="AI36" s="52"/>
       <c r="AJ36" s="30"/>
     </row>
     <row r="37" spans="1:36" ht="15" customHeight="1">
       <c r="A37" s="29"/>
-      <c r="B37" s="133"/>
-      <c r="C37" s="134"/>
-      <c r="D37" s="134"/>
-      <c r="E37" s="134"/>
-      <c r="F37" s="134"/>
-      <c r="G37" s="135"/>
-      <c r="H37" s="134"/>
-      <c r="I37" s="134"/>
-      <c r="J37" s="134"/>
-      <c r="K37" s="134"/>
-      <c r="L37" s="134"/>
-      <c r="M37" s="134"/>
-      <c r="N37" s="134"/>
-      <c r="O37" s="134"/>
-      <c r="P37" s="134"/>
-      <c r="Q37" s="134"/>
-      <c r="R37" s="134"/>
-      <c r="S37" s="134"/>
-      <c r="T37" s="134"/>
-      <c r="U37" s="134"/>
-      <c r="V37" s="134"/>
-      <c r="W37" s="134"/>
-      <c r="X37" s="134"/>
-      <c r="Y37" s="134"/>
-      <c r="Z37" s="134"/>
-      <c r="AA37" s="134"/>
-      <c r="AB37" s="134"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="54"/>
+      <c r="S37" s="54"/>
+      <c r="T37" s="54"/>
+      <c r="U37" s="54"/>
+      <c r="V37" s="54"/>
+      <c r="W37" s="54"/>
+      <c r="X37" s="54"/>
+      <c r="Y37" s="54"/>
+      <c r="Z37" s="54"/>
+      <c r="AA37" s="54"/>
+      <c r="AB37" s="54"/>
       <c r="AC37" s="30"/>
       <c r="AD37" s="29"/>
-      <c r="AE37" s="112"/>
-      <c r="AF37" s="112"/>
-      <c r="AG37" s="112"/>
-      <c r="AH37" s="112"/>
-      <c r="AI37" s="112"/>
+      <c r="AE37" s="52"/>
+      <c r="AF37" s="52"/>
+      <c r="AG37" s="52"/>
+      <c r="AH37" s="52"/>
+      <c r="AI37" s="52"/>
       <c r="AJ37" s="30"/>
     </row>
     <row r="38" spans="1:36" ht="15" customHeight="1">
       <c r="A38" s="29"/>
-      <c r="B38" s="135"/>
-      <c r="C38" s="134"/>
-      <c r="D38" s="134"/>
-      <c r="E38" s="134"/>
-      <c r="F38" s="134"/>
-      <c r="G38" s="135"/>
-      <c r="H38" s="134"/>
-      <c r="I38" s="134"/>
-      <c r="J38" s="134"/>
-      <c r="K38" s="134"/>
-      <c r="L38" s="134"/>
-      <c r="M38" s="134"/>
-      <c r="N38" s="134"/>
-      <c r="O38" s="134"/>
-      <c r="P38" s="134"/>
-      <c r="Q38" s="134"/>
-      <c r="R38" s="134"/>
-      <c r="S38" s="134"/>
-      <c r="T38" s="134"/>
-      <c r="U38" s="134"/>
-      <c r="V38" s="134"/>
-      <c r="W38" s="134"/>
-      <c r="X38" s="134"/>
-      <c r="Y38" s="134"/>
-      <c r="Z38" s="134"/>
-      <c r="AA38" s="134"/>
-      <c r="AB38" s="134"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="54"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="54"/>
+      <c r="U38" s="54"/>
+      <c r="V38" s="54"/>
+      <c r="W38" s="54"/>
+      <c r="X38" s="54"/>
+      <c r="Y38" s="54"/>
+      <c r="Z38" s="54"/>
+      <c r="AA38" s="54"/>
+      <c r="AB38" s="54"/>
       <c r="AC38" s="30"/>
       <c r="AD38" s="29"/>
-      <c r="AE38" s="112"/>
-      <c r="AF38" s="112"/>
-      <c r="AG38" s="112"/>
-      <c r="AH38" s="112"/>
-      <c r="AI38" s="112"/>
+      <c r="AE38" s="52"/>
+      <c r="AF38" s="52"/>
+      <c r="AG38" s="52"/>
+      <c r="AH38" s="52"/>
+      <c r="AI38" s="52"/>
       <c r="AJ38" s="30"/>
     </row>
     <row r="39" spans="1:36" ht="15" customHeight="1">
       <c r="A39" s="29"/>
-      <c r="B39" s="135"/>
-      <c r="C39" s="134"/>
-      <c r="D39" s="134"/>
-      <c r="E39" s="134"/>
-      <c r="F39" s="134"/>
-      <c r="G39" s="135"/>
-      <c r="H39" s="134"/>
-      <c r="I39" s="134"/>
-      <c r="J39" s="134"/>
-      <c r="K39" s="134"/>
-      <c r="L39" s="134"/>
-      <c r="M39" s="134"/>
-      <c r="N39" s="134"/>
-      <c r="O39" s="134"/>
-      <c r="P39" s="134"/>
-      <c r="Q39" s="134"/>
-      <c r="R39" s="134"/>
-      <c r="S39" s="134"/>
-      <c r="T39" s="134"/>
-      <c r="U39" s="134"/>
-      <c r="V39" s="134"/>
-      <c r="W39" s="134"/>
-      <c r="X39" s="134"/>
-      <c r="Y39" s="134"/>
-      <c r="Z39" s="134"/>
-      <c r="AA39" s="134"/>
-      <c r="AB39" s="134"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="54"/>
+      <c r="U39" s="54"/>
+      <c r="V39" s="54"/>
+      <c r="W39" s="54"/>
+      <c r="X39" s="54"/>
+      <c r="Y39" s="54"/>
+      <c r="Z39" s="54"/>
+      <c r="AA39" s="54"/>
+      <c r="AB39" s="54"/>
       <c r="AC39" s="30"/>
       <c r="AD39" s="29"/>
-      <c r="AE39" s="112"/>
-      <c r="AF39" s="112"/>
-      <c r="AG39" s="112"/>
-      <c r="AH39" s="112"/>
-      <c r="AI39" s="112"/>
+      <c r="AE39" s="52"/>
+      <c r="AF39" s="52"/>
+      <c r="AG39" s="52"/>
+      <c r="AH39" s="52"/>
+      <c r="AI39" s="52"/>
       <c r="AJ39" s="30"/>
     </row>
     <row r="40" spans="1:36" ht="15" customHeight="1">
@@ -4110,6 +4101,8 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:H1"/>
     <mergeCell ref="I2:X2"/>
     <mergeCell ref="I1:X1"/>
     <mergeCell ref="E2:H2"/>
@@ -4121,8 +4114,6 @@
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:H1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -4155,112 +4146,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="98" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="127" t="str">
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="77" t="str">
         <f>表紙!D6</f>
         <v>フォーマット</v>
       </c>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="128"/>
-      <c r="T1" s="128"/>
-      <c r="U1" s="128"/>
-      <c r="V1" s="128"/>
-      <c r="W1" s="128"/>
-      <c r="X1" s="129"/>
-      <c r="Y1" s="98" t="s">
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="93" t="str">
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="84" t="str">
         <f>更新履歴!D5</f>
-        <v>田坂</v>
-      </c>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93" t="s">
+        <v>TM</v>
+      </c>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="AF1" s="93"/>
-      <c r="AG1" s="109" t="str">
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="83" t="str">
         <f>VLOOKUP(MAX(更新履歴!B:B),更新履歴!B:D,3,FALSE)</f>
-        <v>田坂</v>
-      </c>
-      <c r="AH1" s="93"/>
-      <c r="AI1" s="93"/>
-      <c r="AJ1" s="93"/>
+        <v>TM</v>
+      </c>
+      <c r="AH1" s="84"/>
+      <c r="AI1" s="84"/>
+      <c r="AJ1" s="84"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1">
-      <c r="A2" s="103"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="98" t="s">
+      <c r="A2" s="89"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="113" t="str">
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="74" t="str">
         <f>RIGHT(表紙!D7,LEN(表紙!D7)-FIND("_",表紙!D7))</f>
         <v>サブシステム名</v>
       </c>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="130"/>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="131"/>
-      <c r="Y2" s="98" t="s">
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="99"/>
-      <c r="AA2" s="94">
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="85">
         <f>更新履歴!B5</f>
         <v>45180</v>
       </c>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="94"/>
-      <c r="AD2" s="94"/>
-      <c r="AE2" s="93" t="s">
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="94">
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="85">
         <f>MAX(更新履歴!B:B)</f>
         <v>45180</v>
       </c>
-      <c r="AH2" s="94"/>
-      <c r="AI2" s="94"/>
-      <c r="AJ2" s="94"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1">
       <c r="A3" s="38"/>
@@ -4297,8 +4288,8 @@
       <c r="A4" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="AC4" s="112"/>
-      <c r="AD4" s="136"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="56"/>
       <c r="AE4" s="27"/>
       <c r="AF4" s="27"/>
       <c r="AG4" s="27"/>
@@ -4317,13 +4308,13 @@
       <c r="H5" s="22"/>
       <c r="J5" s="21"/>
       <c r="Q5" s="22"/>
-      <c r="AC5" s="112"/>
-      <c r="AD5" s="112"/>
-      <c r="AE5" s="112"/>
-      <c r="AF5" s="112"/>
-      <c r="AG5" s="112"/>
-      <c r="AH5" s="112"/>
-      <c r="AI5" s="112"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="52"/>
+      <c r="AE5" s="52"/>
+      <c r="AF5" s="52"/>
+      <c r="AG5" s="52"/>
+      <c r="AH5" s="52"/>
+      <c r="AI5" s="52"/>
       <c r="AJ5" s="30"/>
     </row>
     <row r="6" spans="1:36" ht="15" customHeight="1">
@@ -4333,13 +4324,13 @@
       <c r="H6" s="22"/>
       <c r="J6" s="21"/>
       <c r="Q6" s="22"/>
-      <c r="AC6" s="112"/>
-      <c r="AD6" s="112"/>
-      <c r="AE6" s="112"/>
-      <c r="AF6" s="112"/>
-      <c r="AG6" s="112"/>
-      <c r="AH6" s="112"/>
-      <c r="AI6" s="112"/>
+      <c r="AC6" s="52"/>
+      <c r="AD6" s="52"/>
+      <c r="AE6" s="52"/>
+      <c r="AF6" s="52"/>
+      <c r="AG6" s="52"/>
+      <c r="AH6" s="52"/>
+      <c r="AI6" s="52"/>
       <c r="AJ6" s="30"/>
     </row>
     <row r="7" spans="1:36" ht="15" customHeight="1">
@@ -4360,13 +4351,13 @@
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
-      <c r="AC7" s="112"/>
-      <c r="AD7" s="112"/>
-      <c r="AE7" s="112"/>
-      <c r="AF7" s="112"/>
-      <c r="AG7" s="112"/>
-      <c r="AH7" s="112"/>
-      <c r="AI7" s="112"/>
+      <c r="AC7" s="52"/>
+      <c r="AD7" s="52"/>
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="52"/>
+      <c r="AG7" s="52"/>
+      <c r="AH7" s="52"/>
+      <c r="AI7" s="52"/>
       <c r="AJ7" s="30"/>
     </row>
     <row r="8" spans="1:36" ht="15" customHeight="1">
@@ -4430,13 +4421,13 @@
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
       <c r="Q9" s="21"/>
-      <c r="AC9" s="112"/>
-      <c r="AD9" s="112"/>
-      <c r="AE9" s="112"/>
-      <c r="AF9" s="112"/>
-      <c r="AG9" s="112"/>
-      <c r="AH9" s="112"/>
-      <c r="AI9" s="112"/>
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="52"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="52"/>
+      <c r="AH9" s="52"/>
+      <c r="AI9" s="52"/>
       <c r="AJ9" s="30"/>
     </row>
     <row r="10" spans="1:36" ht="15" customHeight="1">
@@ -4450,13 +4441,13 @@
       <c r="H10" s="21"/>
       <c r="J10" s="21"/>
       <c r="Q10" s="21"/>
-      <c r="AC10" s="112"/>
-      <c r="AD10" s="112"/>
-      <c r="AE10" s="112"/>
-      <c r="AF10" s="112"/>
-      <c r="AG10" s="112"/>
-      <c r="AH10" s="112"/>
-      <c r="AI10" s="112"/>
+      <c r="AC10" s="52"/>
+      <c r="AD10" s="52"/>
+      <c r="AE10" s="52"/>
+      <c r="AF10" s="52"/>
+      <c r="AG10" s="52"/>
+      <c r="AH10" s="52"/>
+      <c r="AI10" s="52"/>
       <c r="AJ10" s="30"/>
     </row>
     <row r="11" spans="1:36" ht="15" customHeight="1">
@@ -4470,13 +4461,13 @@
       <c r="H11" s="21"/>
       <c r="J11" s="21"/>
       <c r="Q11" s="21"/>
-      <c r="AC11" s="112"/>
-      <c r="AD11" s="112"/>
-      <c r="AE11" s="112"/>
-      <c r="AF11" s="112"/>
-      <c r="AG11" s="112"/>
-      <c r="AH11" s="112"/>
-      <c r="AI11" s="112"/>
+      <c r="AC11" s="52"/>
+      <c r="AD11" s="52"/>
+      <c r="AE11" s="52"/>
+      <c r="AF11" s="52"/>
+      <c r="AG11" s="52"/>
+      <c r="AH11" s="52"/>
+      <c r="AI11" s="52"/>
       <c r="AJ11" s="30"/>
     </row>
     <row r="12" spans="1:36" ht="15" customHeight="1">
@@ -4490,13 +4481,13 @@
       <c r="H12" s="21"/>
       <c r="J12" s="21"/>
       <c r="Q12" s="21"/>
-      <c r="AC12" s="112"/>
-      <c r="AD12" s="112"/>
-      <c r="AE12" s="112"/>
-      <c r="AF12" s="112"/>
-      <c r="AG12" s="112"/>
-      <c r="AH12" s="112"/>
-      <c r="AI12" s="112"/>
+      <c r="AC12" s="52"/>
+      <c r="AD12" s="52"/>
+      <c r="AE12" s="52"/>
+      <c r="AF12" s="52"/>
+      <c r="AG12" s="52"/>
+      <c r="AH12" s="52"/>
+      <c r="AI12" s="52"/>
       <c r="AJ12" s="30"/>
     </row>
     <row r="13" spans="1:36" ht="15" customHeight="1">
@@ -4508,13 +4499,13 @@
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="21"/>
-      <c r="AC13" s="112"/>
-      <c r="AD13" s="112"/>
-      <c r="AE13" s="112"/>
-      <c r="AF13" s="112"/>
-      <c r="AG13" s="112"/>
-      <c r="AH13" s="112"/>
-      <c r="AI13" s="112"/>
+      <c r="AC13" s="52"/>
+      <c r="AD13" s="52"/>
+      <c r="AE13" s="52"/>
+      <c r="AF13" s="52"/>
+      <c r="AG13" s="52"/>
+      <c r="AH13" s="52"/>
+      <c r="AI13" s="52"/>
       <c r="AJ13" s="30"/>
     </row>
     <row r="14" spans="1:36" ht="15" customHeight="1">
@@ -4522,18 +4513,18 @@
       <c r="B14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="21"/>
-      <c r="AC14" s="112"/>
+      <c r="AC14" s="52"/>
       <c r="AD14" s="33"/>
-      <c r="AE14" s="112"/>
-      <c r="AF14" s="112"/>
-      <c r="AG14" s="112"/>
-      <c r="AH14" s="112"/>
-      <c r="AI14" s="112"/>
+      <c r="AE14" s="52"/>
+      <c r="AF14" s="52"/>
+      <c r="AG14" s="52"/>
+      <c r="AH14" s="52"/>
+      <c r="AI14" s="52"/>
       <c r="AJ14" s="30"/>
     </row>
     <row r="15" spans="1:36" ht="15" customHeight="1">
       <c r="A15" s="36" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
@@ -4564,7 +4555,7 @@
       <c r="AB15" s="27"/>
       <c r="AC15" s="40"/>
       <c r="AD15" s="36" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AE15" s="27"/>
       <c r="AF15" s="27"/>
@@ -4584,11 +4575,11 @@
       <c r="H16" s="21"/>
       <c r="AC16" s="30"/>
       <c r="AD16" s="29"/>
-      <c r="AE16" s="112"/>
-      <c r="AF16" s="112"/>
-      <c r="AG16" s="112"/>
-      <c r="AH16" s="112"/>
-      <c r="AI16" s="112"/>
+      <c r="AE16" s="52"/>
+      <c r="AF16" s="52"/>
+      <c r="AG16" s="52"/>
+      <c r="AH16" s="52"/>
+      <c r="AI16" s="52"/>
       <c r="AJ16" s="30"/>
     </row>
     <row r="17" spans="1:36" ht="15" customHeight="1">
@@ -4603,11 +4594,11 @@
       <c r="H17" s="21"/>
       <c r="AC17" s="30"/>
       <c r="AD17" s="29"/>
-      <c r="AE17" s="112"/>
-      <c r="AF17" s="112"/>
-      <c r="AG17" s="112"/>
-      <c r="AH17" s="112"/>
-      <c r="AI17" s="112"/>
+      <c r="AE17" s="52"/>
+      <c r="AF17" s="52"/>
+      <c r="AG17" s="52"/>
+      <c r="AH17" s="52"/>
+      <c r="AI17" s="52"/>
       <c r="AJ17" s="30"/>
     </row>
     <row r="18" spans="1:36" ht="15" customHeight="1">
@@ -4620,11 +4611,11 @@
       <c r="H18" s="21"/>
       <c r="AC18" s="30"/>
       <c r="AD18" s="29"/>
-      <c r="AE18" s="112"/>
-      <c r="AF18" s="112"/>
-      <c r="AG18" s="112"/>
-      <c r="AH18" s="112"/>
-      <c r="AI18" s="112"/>
+      <c r="AE18" s="52"/>
+      <c r="AF18" s="52"/>
+      <c r="AG18" s="52"/>
+      <c r="AH18" s="52"/>
+      <c r="AI18" s="52"/>
       <c r="AJ18" s="30"/>
     </row>
     <row r="19" spans="1:36" ht="15" customHeight="1">
@@ -4634,11 +4625,11 @@
       <c r="H19" s="21"/>
       <c r="AC19" s="30"/>
       <c r="AD19" s="29"/>
-      <c r="AE19" s="112"/>
-      <c r="AF19" s="112"/>
-      <c r="AG19" s="112"/>
-      <c r="AH19" s="112"/>
-      <c r="AI19" s="112"/>
+      <c r="AE19" s="52"/>
+      <c r="AF19" s="52"/>
+      <c r="AG19" s="52"/>
+      <c r="AH19" s="52"/>
+      <c r="AI19" s="52"/>
       <c r="AJ19" s="30"/>
     </row>
     <row r="20" spans="1:36" ht="15" customHeight="1">
@@ -4652,11 +4643,11 @@
       <c r="H20" s="21"/>
       <c r="AC20" s="30"/>
       <c r="AD20" s="29"/>
-      <c r="AE20" s="112"/>
-      <c r="AF20" s="112"/>
-      <c r="AG20" s="112"/>
-      <c r="AH20" s="112"/>
-      <c r="AI20" s="112"/>
+      <c r="AE20" s="52"/>
+      <c r="AF20" s="52"/>
+      <c r="AG20" s="52"/>
+      <c r="AH20" s="52"/>
+      <c r="AI20" s="52"/>
       <c r="AJ20" s="30"/>
     </row>
     <row r="21" spans="1:36" ht="15" customHeight="1">
@@ -4671,11 +4662,11 @@
       <c r="H21" s="21"/>
       <c r="AC21" s="30"/>
       <c r="AD21" s="29"/>
-      <c r="AE21" s="112"/>
-      <c r="AF21" s="112"/>
-      <c r="AG21" s="112"/>
-      <c r="AH21" s="112"/>
-      <c r="AI21" s="112"/>
+      <c r="AE21" s="52"/>
+      <c r="AF21" s="52"/>
+      <c r="AG21" s="52"/>
+      <c r="AH21" s="52"/>
+      <c r="AI21" s="52"/>
       <c r="AJ21" s="30"/>
     </row>
     <row r="22" spans="1:36" ht="15" customHeight="1">
@@ -4685,11 +4676,11 @@
       <c r="H22" s="21"/>
       <c r="AC22" s="30"/>
       <c r="AD22" s="29"/>
-      <c r="AE22" s="112"/>
-      <c r="AF22" s="112"/>
-      <c r="AG22" s="112"/>
-      <c r="AH22" s="112"/>
-      <c r="AI22" s="112"/>
+      <c r="AE22" s="52"/>
+      <c r="AF22" s="52"/>
+      <c r="AG22" s="52"/>
+      <c r="AH22" s="52"/>
+      <c r="AI22" s="52"/>
       <c r="AJ22" s="30"/>
     </row>
     <row r="23" spans="1:36" ht="15" customHeight="1">
@@ -4703,11 +4694,11 @@
       <c r="H23" s="21"/>
       <c r="AC23" s="30"/>
       <c r="AD23" s="29"/>
-      <c r="AE23" s="112"/>
-      <c r="AF23" s="112"/>
-      <c r="AG23" s="112"/>
-      <c r="AH23" s="112"/>
-      <c r="AI23" s="112"/>
+      <c r="AE23" s="52"/>
+      <c r="AF23" s="52"/>
+      <c r="AG23" s="52"/>
+      <c r="AH23" s="52"/>
+      <c r="AI23" s="52"/>
       <c r="AJ23" s="30"/>
     </row>
     <row r="24" spans="1:36" ht="15" customHeight="1">
@@ -4723,11 +4714,11 @@
       <c r="H24" s="21"/>
       <c r="AC24" s="30"/>
       <c r="AD24" s="29"/>
-      <c r="AE24" s="112"/>
-      <c r="AF24" s="112"/>
-      <c r="AG24" s="112"/>
-      <c r="AH24" s="112"/>
-      <c r="AI24" s="112"/>
+      <c r="AE24" s="52"/>
+      <c r="AF24" s="52"/>
+      <c r="AG24" s="52"/>
+      <c r="AH24" s="52"/>
+      <c r="AI24" s="52"/>
       <c r="AJ24" s="30"/>
     </row>
     <row r="25" spans="1:36" ht="15" customHeight="1">
@@ -4742,53 +4733,53 @@
       <c r="H25" s="21"/>
       <c r="AC25" s="30"/>
       <c r="AD25" s="29"/>
-      <c r="AE25" s="112"/>
-      <c r="AF25" s="112"/>
-      <c r="AG25" s="112"/>
-      <c r="AH25" s="112"/>
-      <c r="AI25" s="112"/>
+      <c r="AE25" s="52"/>
+      <c r="AF25" s="52"/>
+      <c r="AG25" s="52"/>
+      <c r="AH25" s="52"/>
+      <c r="AI25" s="52"/>
       <c r="AJ25" s="30"/>
     </row>
     <row r="26" spans="1:36" ht="15" customHeight="1">
       <c r="A26" s="29"/>
       <c r="AC26" s="30"/>
       <c r="AD26" s="29"/>
-      <c r="AE26" s="112"/>
-      <c r="AF26" s="112"/>
-      <c r="AG26" s="112"/>
-      <c r="AH26" s="112"/>
-      <c r="AI26" s="112"/>
+      <c r="AE26" s="52"/>
+      <c r="AF26" s="52"/>
+      <c r="AG26" s="52"/>
+      <c r="AH26" s="52"/>
+      <c r="AI26" s="52"/>
       <c r="AJ26" s="30"/>
     </row>
     <row r="27" spans="1:36" ht="15" customHeight="1">
       <c r="A27" s="29"/>
-      <c r="C27" s="90" t="s">
+      <c r="C27" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="90" t="s">
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="M27" s="91"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="91"/>
-      <c r="P27" s="91"/>
-      <c r="Q27" s="91"/>
-      <c r="R27" s="92"/>
+      <c r="M27" s="108"/>
+      <c r="N27" s="108"/>
+      <c r="O27" s="108"/>
+      <c r="P27" s="108"/>
+      <c r="Q27" s="108"/>
+      <c r="R27" s="109"/>
       <c r="AC27" s="30"/>
       <c r="AD27" s="29"/>
-      <c r="AE27" s="112"/>
-      <c r="AF27" s="112"/>
-      <c r="AG27" s="112"/>
-      <c r="AH27" s="112"/>
-      <c r="AI27" s="112"/>
+      <c r="AE27" s="52"/>
+      <c r="AF27" s="52"/>
+      <c r="AG27" s="52"/>
+      <c r="AH27" s="52"/>
+      <c r="AI27" s="52"/>
       <c r="AJ27" s="30"/>
     </row>
     <row r="28" spans="1:36" ht="15" customHeight="1">
@@ -4796,34 +4787,34 @@
       <c r="C28" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="95" t="s">
+      <c r="D28" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="97" t="s">
+      <c r="E28" s="134"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="135"/>
+      <c r="H28" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="I28" s="95"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="87" t="s">
+      <c r="I28" s="134"/>
+      <c r="J28" s="134"/>
+      <c r="K28" s="135"/>
+      <c r="L28" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="M28" s="123"/>
-      <c r="N28" s="123"/>
-      <c r="O28" s="123"/>
-      <c r="P28" s="123"/>
-      <c r="Q28" s="123"/>
-      <c r="R28" s="124"/>
+      <c r="M28" s="127"/>
+      <c r="N28" s="127"/>
+      <c r="O28" s="127"/>
+      <c r="P28" s="127"/>
+      <c r="Q28" s="127"/>
+      <c r="R28" s="128"/>
       <c r="AC28" s="30"/>
       <c r="AD28" s="29"/>
-      <c r="AE28" s="112"/>
-      <c r="AF28" s="112"/>
-      <c r="AG28" s="112"/>
-      <c r="AH28" s="112"/>
-      <c r="AI28" s="112"/>
+      <c r="AE28" s="52"/>
+      <c r="AF28" s="52"/>
+      <c r="AG28" s="52"/>
+      <c r="AH28" s="52"/>
+      <c r="AI28" s="52"/>
       <c r="AJ28" s="30"/>
     </row>
     <row r="29" spans="1:36" ht="15" customHeight="1">
@@ -4831,34 +4822,34 @@
       <c r="C29" s="43">
         <v>1</v>
       </c>
-      <c r="D29" s="85" t="s">
+      <c r="D29" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="85" t="s">
+      <c r="E29" s="124"/>
+      <c r="F29" s="124"/>
+      <c r="G29" s="125"/>
+      <c r="H29" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="87" t="s">
+      <c r="I29" s="124"/>
+      <c r="J29" s="124"/>
+      <c r="K29" s="125"/>
+      <c r="L29" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="M29" s="123"/>
-      <c r="N29" s="123"/>
-      <c r="O29" s="123"/>
-      <c r="P29" s="123"/>
-      <c r="Q29" s="123"/>
-      <c r="R29" s="124"/>
+      <c r="M29" s="127"/>
+      <c r="N29" s="127"/>
+      <c r="O29" s="127"/>
+      <c r="P29" s="127"/>
+      <c r="Q29" s="127"/>
+      <c r="R29" s="128"/>
       <c r="AC29" s="30"/>
       <c r="AD29" s="29"/>
-      <c r="AE29" s="112"/>
-      <c r="AF29" s="112"/>
-      <c r="AG29" s="112"/>
-      <c r="AH29" s="112"/>
-      <c r="AI29" s="112"/>
+      <c r="AE29" s="52"/>
+      <c r="AF29" s="52"/>
+      <c r="AG29" s="52"/>
+      <c r="AH29" s="52"/>
+      <c r="AI29" s="52"/>
       <c r="AJ29" s="30"/>
     </row>
     <row r="30" spans="1:36" ht="15" customHeight="1">
@@ -4866,34 +4857,34 @@
       <c r="C30" s="43">
         <v>2</v>
       </c>
-      <c r="D30" s="85" t="s">
+      <c r="D30" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="85" t="s">
+      <c r="E30" s="124"/>
+      <c r="F30" s="124"/>
+      <c r="G30" s="125"/>
+      <c r="H30" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="86"/>
-      <c r="L30" s="87" t="s">
+      <c r="I30" s="124"/>
+      <c r="J30" s="124"/>
+      <c r="K30" s="125"/>
+      <c r="L30" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="M30" s="123"/>
-      <c r="N30" s="123"/>
-      <c r="O30" s="123"/>
-      <c r="P30" s="123"/>
-      <c r="Q30" s="123"/>
-      <c r="R30" s="124"/>
+      <c r="M30" s="127"/>
+      <c r="N30" s="127"/>
+      <c r="O30" s="127"/>
+      <c r="P30" s="127"/>
+      <c r="Q30" s="127"/>
+      <c r="R30" s="128"/>
       <c r="AC30" s="30"/>
       <c r="AD30" s="29"/>
-      <c r="AE30" s="112"/>
-      <c r="AF30" s="112"/>
-      <c r="AG30" s="112"/>
-      <c r="AH30" s="112"/>
-      <c r="AI30" s="112"/>
+      <c r="AE30" s="52"/>
+      <c r="AF30" s="52"/>
+      <c r="AG30" s="52"/>
+      <c r="AH30" s="52"/>
+      <c r="AI30" s="52"/>
       <c r="AJ30" s="30"/>
     </row>
     <row r="31" spans="1:36" ht="15" customHeight="1">
@@ -4901,34 +4892,34 @@
       <c r="C31" s="43">
         <v>3</v>
       </c>
-      <c r="D31" s="85" t="s">
+      <c r="D31" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="85" t="s">
+      <c r="E31" s="124"/>
+      <c r="F31" s="124"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="I31" s="85"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="86"/>
-      <c r="L31" s="87" t="s">
+      <c r="I31" s="124"/>
+      <c r="J31" s="124"/>
+      <c r="K31" s="125"/>
+      <c r="L31" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="M31" s="123"/>
-      <c r="N31" s="123"/>
-      <c r="O31" s="123"/>
-      <c r="P31" s="123"/>
-      <c r="Q31" s="123"/>
-      <c r="R31" s="124"/>
+      <c r="M31" s="127"/>
+      <c r="N31" s="127"/>
+      <c r="O31" s="127"/>
+      <c r="P31" s="127"/>
+      <c r="Q31" s="127"/>
+      <c r="R31" s="128"/>
       <c r="AC31" s="30"/>
       <c r="AD31" s="29"/>
-      <c r="AE31" s="112"/>
-      <c r="AF31" s="112"/>
-      <c r="AG31" s="112"/>
-      <c r="AH31" s="112"/>
-      <c r="AI31" s="112"/>
+      <c r="AE31" s="52"/>
+      <c r="AF31" s="52"/>
+      <c r="AG31" s="52"/>
+      <c r="AH31" s="52"/>
+      <c r="AI31" s="52"/>
       <c r="AJ31" s="30"/>
     </row>
     <row r="32" spans="1:36" ht="15" customHeight="1">
@@ -4936,34 +4927,34 @@
       <c r="C32" s="43">
         <v>4</v>
       </c>
-      <c r="D32" s="85" t="s">
+      <c r="D32" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="85" t="s">
+      <c r="E32" s="124"/>
+      <c r="F32" s="124"/>
+      <c r="G32" s="125"/>
+      <c r="H32" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="I32" s="85"/>
-      <c r="J32" s="85"/>
-      <c r="K32" s="86"/>
-      <c r="L32" s="87" t="s">
+      <c r="I32" s="124"/>
+      <c r="J32" s="124"/>
+      <c r="K32" s="125"/>
+      <c r="L32" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="M32" s="123"/>
-      <c r="N32" s="123"/>
-      <c r="O32" s="123"/>
-      <c r="P32" s="123"/>
-      <c r="Q32" s="123"/>
-      <c r="R32" s="124"/>
+      <c r="M32" s="127"/>
+      <c r="N32" s="127"/>
+      <c r="O32" s="127"/>
+      <c r="P32" s="127"/>
+      <c r="Q32" s="127"/>
+      <c r="R32" s="128"/>
       <c r="AC32" s="30"/>
       <c r="AD32" s="29"/>
-      <c r="AE32" s="112"/>
-      <c r="AF32" s="112"/>
-      <c r="AG32" s="112"/>
-      <c r="AH32" s="112"/>
-      <c r="AI32" s="112"/>
+      <c r="AE32" s="52"/>
+      <c r="AF32" s="52"/>
+      <c r="AG32" s="52"/>
+      <c r="AH32" s="52"/>
+      <c r="AI32" s="52"/>
       <c r="AJ32" s="30"/>
     </row>
     <row r="33" spans="1:36" ht="15" customHeight="1">
@@ -4971,34 +4962,34 @@
       <c r="C33" s="43">
         <v>5</v>
       </c>
-      <c r="D33" s="85" t="s">
+      <c r="D33" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="85" t="s">
+      <c r="E33" s="124"/>
+      <c r="F33" s="124"/>
+      <c r="G33" s="125"/>
+      <c r="H33" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="I33" s="85"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="86"/>
-      <c r="L33" s="87" t="s">
+      <c r="I33" s="124"/>
+      <c r="J33" s="124"/>
+      <c r="K33" s="125"/>
+      <c r="L33" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="M33" s="123"/>
-      <c r="N33" s="123"/>
-      <c r="O33" s="123"/>
-      <c r="P33" s="123"/>
-      <c r="Q33" s="123"/>
-      <c r="R33" s="124"/>
+      <c r="M33" s="127"/>
+      <c r="N33" s="127"/>
+      <c r="O33" s="127"/>
+      <c r="P33" s="127"/>
+      <c r="Q33" s="127"/>
+      <c r="R33" s="128"/>
       <c r="AC33" s="30"/>
       <c r="AD33" s="29"/>
-      <c r="AE33" s="112"/>
-      <c r="AF33" s="112"/>
-      <c r="AG33" s="112"/>
-      <c r="AH33" s="112"/>
-      <c r="AI33" s="112"/>
+      <c r="AE33" s="52"/>
+      <c r="AF33" s="52"/>
+      <c r="AG33" s="52"/>
+      <c r="AH33" s="52"/>
+      <c r="AI33" s="52"/>
       <c r="AJ33" s="30"/>
     </row>
     <row r="34" spans="1:36" ht="15" customHeight="1">
@@ -5006,34 +4997,34 @@
       <c r="C34" s="43">
         <v>6</v>
       </c>
-      <c r="D34" s="85" t="s">
+      <c r="D34" s="124" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="85" t="s">
+      <c r="E34" s="124"/>
+      <c r="F34" s="124"/>
+      <c r="G34" s="125"/>
+      <c r="H34" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="86"/>
-      <c r="L34" s="87" t="s">
+      <c r="I34" s="124"/>
+      <c r="J34" s="124"/>
+      <c r="K34" s="125"/>
+      <c r="L34" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="M34" s="123"/>
-      <c r="N34" s="123"/>
-      <c r="O34" s="123"/>
-      <c r="P34" s="123"/>
-      <c r="Q34" s="123"/>
-      <c r="R34" s="124"/>
+      <c r="M34" s="127"/>
+      <c r="N34" s="127"/>
+      <c r="O34" s="127"/>
+      <c r="P34" s="127"/>
+      <c r="Q34" s="127"/>
+      <c r="R34" s="128"/>
       <c r="AC34" s="30"/>
       <c r="AD34" s="29"/>
-      <c r="AE34" s="112"/>
-      <c r="AF34" s="112"/>
-      <c r="AG34" s="112"/>
-      <c r="AH34" s="112"/>
-      <c r="AI34" s="112"/>
+      <c r="AE34" s="52"/>
+      <c r="AF34" s="52"/>
+      <c r="AG34" s="52"/>
+      <c r="AH34" s="52"/>
+      <c r="AI34" s="52"/>
       <c r="AJ34" s="30"/>
     </row>
     <row r="35" spans="1:36" ht="15" customHeight="1">
@@ -5041,34 +5032,34 @@
       <c r="C35" s="43">
         <v>7</v>
       </c>
-      <c r="D35" s="85" t="s">
+      <c r="D35" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="85" t="s">
+      <c r="E35" s="124"/>
+      <c r="F35" s="124"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="86"/>
-      <c r="L35" s="87" t="s">
+      <c r="I35" s="124"/>
+      <c r="J35" s="124"/>
+      <c r="K35" s="125"/>
+      <c r="L35" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="M35" s="123"/>
-      <c r="N35" s="123"/>
-      <c r="O35" s="123"/>
-      <c r="P35" s="123"/>
-      <c r="Q35" s="123"/>
-      <c r="R35" s="124"/>
+      <c r="M35" s="127"/>
+      <c r="N35" s="127"/>
+      <c r="O35" s="127"/>
+      <c r="P35" s="127"/>
+      <c r="Q35" s="127"/>
+      <c r="R35" s="128"/>
       <c r="AC35" s="30"/>
       <c r="AD35" s="29"/>
-      <c r="AE35" s="112"/>
-      <c r="AF35" s="112"/>
-      <c r="AG35" s="112"/>
-      <c r="AH35" s="112"/>
-      <c r="AI35" s="112"/>
+      <c r="AE35" s="52"/>
+      <c r="AF35" s="52"/>
+      <c r="AG35" s="52"/>
+      <c r="AH35" s="52"/>
+      <c r="AI35" s="52"/>
       <c r="AJ35" s="30"/>
     </row>
     <row r="36" spans="1:36" ht="15" customHeight="1">
@@ -5076,34 +5067,34 @@
       <c r="C36" s="44">
         <v>8</v>
       </c>
-      <c r="D36" s="88" t="s">
+      <c r="D36" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="88" t="s">
+      <c r="E36" s="129"/>
+      <c r="F36" s="129"/>
+      <c r="G36" s="130"/>
+      <c r="H36" s="129" t="s">
         <v>53</v>
       </c>
-      <c r="I36" s="88"/>
-      <c r="J36" s="88"/>
-      <c r="K36" s="89"/>
-      <c r="L36" s="87" t="s">
+      <c r="I36" s="129"/>
+      <c r="J36" s="129"/>
+      <c r="K36" s="130"/>
+      <c r="L36" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="M36" s="123"/>
-      <c r="N36" s="123"/>
-      <c r="O36" s="123"/>
-      <c r="P36" s="123"/>
-      <c r="Q36" s="123"/>
-      <c r="R36" s="124"/>
+      <c r="M36" s="127"/>
+      <c r="N36" s="127"/>
+      <c r="O36" s="127"/>
+      <c r="P36" s="127"/>
+      <c r="Q36" s="127"/>
+      <c r="R36" s="128"/>
       <c r="AC36" s="30"/>
       <c r="AD36" s="29"/>
-      <c r="AE36" s="112"/>
-      <c r="AF36" s="112"/>
-      <c r="AG36" s="112"/>
-      <c r="AH36" s="112"/>
-      <c r="AI36" s="112"/>
+      <c r="AE36" s="52"/>
+      <c r="AF36" s="52"/>
+      <c r="AG36" s="52"/>
+      <c r="AH36" s="52"/>
+      <c r="AI36" s="52"/>
       <c r="AJ36" s="30"/>
     </row>
     <row r="37" spans="1:36" ht="15" customHeight="1">
@@ -5111,34 +5102,34 @@
       <c r="C37" s="43">
         <v>9</v>
       </c>
-      <c r="D37" s="85" t="s">
+      <c r="D37" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="85" t="s">
+      <c r="E37" s="124"/>
+      <c r="F37" s="124"/>
+      <c r="G37" s="125"/>
+      <c r="H37" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="I37" s="85"/>
-      <c r="J37" s="85"/>
-      <c r="K37" s="86"/>
-      <c r="L37" s="87" t="s">
+      <c r="I37" s="124"/>
+      <c r="J37" s="124"/>
+      <c r="K37" s="125"/>
+      <c r="L37" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="M37" s="123"/>
-      <c r="N37" s="123"/>
-      <c r="O37" s="123"/>
-      <c r="P37" s="123"/>
-      <c r="Q37" s="123"/>
-      <c r="R37" s="124"/>
+      <c r="M37" s="127"/>
+      <c r="N37" s="127"/>
+      <c r="O37" s="127"/>
+      <c r="P37" s="127"/>
+      <c r="Q37" s="127"/>
+      <c r="R37" s="128"/>
       <c r="AC37" s="30"/>
       <c r="AD37" s="29"/>
-      <c r="AE37" s="112"/>
-      <c r="AF37" s="112"/>
-      <c r="AG37" s="112"/>
-      <c r="AH37" s="112"/>
-      <c r="AI37" s="112"/>
+      <c r="AE37" s="52"/>
+      <c r="AF37" s="52"/>
+      <c r="AG37" s="52"/>
+      <c r="AH37" s="52"/>
+      <c r="AI37" s="52"/>
       <c r="AJ37" s="30"/>
     </row>
     <row r="38" spans="1:36" ht="15" customHeight="1">
@@ -5146,34 +5137,34 @@
       <c r="C38" s="44">
         <v>10</v>
       </c>
-      <c r="D38" s="88" t="s">
+      <c r="D38" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="88" t="s">
+      <c r="E38" s="129"/>
+      <c r="F38" s="129"/>
+      <c r="G38" s="130"/>
+      <c r="H38" s="129" t="s">
         <v>53</v>
       </c>
-      <c r="I38" s="88"/>
-      <c r="J38" s="88"/>
-      <c r="K38" s="89"/>
-      <c r="L38" s="87" t="s">
+      <c r="I38" s="129"/>
+      <c r="J38" s="129"/>
+      <c r="K38" s="130"/>
+      <c r="L38" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="M38" s="123"/>
-      <c r="N38" s="123"/>
-      <c r="O38" s="123"/>
-      <c r="P38" s="123"/>
-      <c r="Q38" s="123"/>
-      <c r="R38" s="124"/>
+      <c r="M38" s="127"/>
+      <c r="N38" s="127"/>
+      <c r="O38" s="127"/>
+      <c r="P38" s="127"/>
+      <c r="Q38" s="127"/>
+      <c r="R38" s="128"/>
       <c r="AC38" s="30"/>
       <c r="AD38" s="29"/>
-      <c r="AE38" s="112"/>
-      <c r="AF38" s="112"/>
-      <c r="AG38" s="112"/>
-      <c r="AH38" s="112"/>
-      <c r="AI38" s="112"/>
+      <c r="AE38" s="52"/>
+      <c r="AF38" s="52"/>
+      <c r="AG38" s="52"/>
+      <c r="AH38" s="52"/>
+      <c r="AI38" s="52"/>
       <c r="AJ38" s="30"/>
     </row>
     <row r="39" spans="1:36" ht="15" customHeight="1">
@@ -5181,34 +5172,34 @@
       <c r="C39" s="44">
         <v>11</v>
       </c>
-      <c r="D39" s="88" t="s">
+      <c r="D39" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="E39" s="88"/>
-      <c r="F39" s="88"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="88" t="s">
+      <c r="E39" s="129"/>
+      <c r="F39" s="129"/>
+      <c r="G39" s="130"/>
+      <c r="H39" s="129" t="s">
         <v>53</v>
       </c>
-      <c r="I39" s="88"/>
-      <c r="J39" s="88"/>
-      <c r="K39" s="89"/>
-      <c r="L39" s="87" t="s">
+      <c r="I39" s="129"/>
+      <c r="J39" s="129"/>
+      <c r="K39" s="130"/>
+      <c r="L39" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="M39" s="123"/>
-      <c r="N39" s="123"/>
-      <c r="O39" s="123"/>
-      <c r="P39" s="123"/>
-      <c r="Q39" s="123"/>
-      <c r="R39" s="124"/>
+      <c r="M39" s="127"/>
+      <c r="N39" s="127"/>
+      <c r="O39" s="127"/>
+      <c r="P39" s="127"/>
+      <c r="Q39" s="127"/>
+      <c r="R39" s="128"/>
       <c r="AC39" s="30"/>
       <c r="AD39" s="29"/>
-      <c r="AE39" s="112"/>
-      <c r="AF39" s="112"/>
-      <c r="AG39" s="112"/>
-      <c r="AH39" s="112"/>
-      <c r="AI39" s="112"/>
+      <c r="AE39" s="52"/>
+      <c r="AF39" s="52"/>
+      <c r="AG39" s="52"/>
+      <c r="AH39" s="52"/>
+      <c r="AI39" s="52"/>
       <c r="AJ39" s="30"/>
     </row>
     <row r="40" spans="1:36" ht="15" customHeight="1">
@@ -5216,34 +5207,34 @@
       <c r="C40" s="44">
         <v>12</v>
       </c>
-      <c r="D40" s="88" t="s">
+      <c r="D40" s="129" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="88" t="s">
+      <c r="E40" s="129"/>
+      <c r="F40" s="129"/>
+      <c r="G40" s="130"/>
+      <c r="H40" s="129" t="s">
         <v>65</v>
       </c>
-      <c r="I40" s="88"/>
-      <c r="J40" s="88"/>
-      <c r="K40" s="89"/>
-      <c r="L40" s="107" t="s">
+      <c r="I40" s="129"/>
+      <c r="J40" s="129"/>
+      <c r="K40" s="130"/>
+      <c r="L40" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="M40" s="125"/>
-      <c r="N40" s="125"/>
-      <c r="O40" s="125"/>
-      <c r="P40" s="125"/>
-      <c r="Q40" s="125"/>
-      <c r="R40" s="126"/>
+      <c r="M40" s="132"/>
+      <c r="N40" s="132"/>
+      <c r="O40" s="132"/>
+      <c r="P40" s="132"/>
+      <c r="Q40" s="132"/>
+      <c r="R40" s="133"/>
       <c r="AC40" s="30"/>
       <c r="AD40" s="29"/>
-      <c r="AE40" s="112"/>
-      <c r="AF40" s="112"/>
-      <c r="AG40" s="112"/>
-      <c r="AH40" s="112"/>
-      <c r="AI40" s="112"/>
+      <c r="AE40" s="52"/>
+      <c r="AF40" s="52"/>
+      <c r="AG40" s="52"/>
+      <c r="AH40" s="52"/>
+      <c r="AI40" s="52"/>
       <c r="AJ40" s="30"/>
     </row>
     <row r="41" spans="1:36" ht="15" customHeight="1">
@@ -5251,34 +5242,34 @@
       <c r="C41" s="43">
         <v>13</v>
       </c>
-      <c r="D41" s="85" t="s">
+      <c r="D41" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="85"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="86"/>
-      <c r="H41" s="85" t="s">
+      <c r="E41" s="124"/>
+      <c r="F41" s="124"/>
+      <c r="G41" s="125"/>
+      <c r="H41" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="I41" s="85"/>
-      <c r="J41" s="85"/>
-      <c r="K41" s="86"/>
-      <c r="L41" s="87" t="s">
+      <c r="I41" s="124"/>
+      <c r="J41" s="124"/>
+      <c r="K41" s="125"/>
+      <c r="L41" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="M41" s="123"/>
-      <c r="N41" s="123"/>
-      <c r="O41" s="123"/>
-      <c r="P41" s="123"/>
-      <c r="Q41" s="123"/>
-      <c r="R41" s="124"/>
+      <c r="M41" s="127"/>
+      <c r="N41" s="127"/>
+      <c r="O41" s="127"/>
+      <c r="P41" s="127"/>
+      <c r="Q41" s="127"/>
+      <c r="R41" s="128"/>
       <c r="AC41" s="30"/>
       <c r="AD41" s="29"/>
-      <c r="AE41" s="112"/>
-      <c r="AF41" s="112"/>
-      <c r="AG41" s="112"/>
-      <c r="AH41" s="112"/>
-      <c r="AI41" s="112"/>
+      <c r="AE41" s="52"/>
+      <c r="AF41" s="52"/>
+      <c r="AG41" s="52"/>
+      <c r="AH41" s="52"/>
+      <c r="AI41" s="52"/>
       <c r="AJ41" s="30"/>
     </row>
     <row r="42" spans="1:36" ht="15" customHeight="1">
@@ -5286,34 +5277,34 @@
       <c r="C42" s="43">
         <v>14</v>
       </c>
-      <c r="D42" s="85" t="s">
+      <c r="D42" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="86"/>
-      <c r="H42" s="85" t="s">
+      <c r="E42" s="124"/>
+      <c r="F42" s="124"/>
+      <c r="G42" s="125"/>
+      <c r="H42" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="I42" s="85"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="86"/>
-      <c r="L42" s="87" t="s">
+      <c r="I42" s="124"/>
+      <c r="J42" s="124"/>
+      <c r="K42" s="125"/>
+      <c r="L42" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="M42" s="123"/>
-      <c r="N42" s="123"/>
-      <c r="O42" s="123"/>
-      <c r="P42" s="123"/>
-      <c r="Q42" s="123"/>
-      <c r="R42" s="124"/>
+      <c r="M42" s="127"/>
+      <c r="N42" s="127"/>
+      <c r="O42" s="127"/>
+      <c r="P42" s="127"/>
+      <c r="Q42" s="127"/>
+      <c r="R42" s="128"/>
       <c r="AC42" s="30"/>
       <c r="AD42" s="29"/>
-      <c r="AE42" s="112"/>
-      <c r="AF42" s="112"/>
-      <c r="AG42" s="112"/>
-      <c r="AH42" s="112"/>
-      <c r="AI42" s="112"/>
+      <c r="AE42" s="52"/>
+      <c r="AF42" s="52"/>
+      <c r="AG42" s="52"/>
+      <c r="AH42" s="52"/>
+      <c r="AI42" s="52"/>
       <c r="AJ42" s="30"/>
     </row>
     <row r="43" spans="1:36" ht="15" customHeight="1">
@@ -5321,612 +5312,612 @@
       <c r="C43" s="44">
         <v>15</v>
       </c>
-      <c r="D43" s="88" t="s">
+      <c r="D43" s="129" t="s">
         <v>69</v>
       </c>
-      <c r="E43" s="88"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="88" t="s">
+      <c r="E43" s="129"/>
+      <c r="F43" s="129"/>
+      <c r="G43" s="130"/>
+      <c r="H43" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="I43" s="88"/>
-      <c r="J43" s="88"/>
-      <c r="K43" s="89"/>
-      <c r="L43" s="87" t="s">
+      <c r="I43" s="129"/>
+      <c r="J43" s="129"/>
+      <c r="K43" s="130"/>
+      <c r="L43" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="M43" s="123"/>
-      <c r="N43" s="123"/>
-      <c r="O43" s="123"/>
-      <c r="P43" s="123"/>
-      <c r="Q43" s="123"/>
-      <c r="R43" s="124"/>
+      <c r="M43" s="127"/>
+      <c r="N43" s="127"/>
+      <c r="O43" s="127"/>
+      <c r="P43" s="127"/>
+      <c r="Q43" s="127"/>
+      <c r="R43" s="128"/>
       <c r="AC43" s="30"/>
       <c r="AD43" s="29"/>
-      <c r="AE43" s="112"/>
-      <c r="AF43" s="112"/>
-      <c r="AG43" s="112"/>
-      <c r="AH43" s="112"/>
-      <c r="AI43" s="112"/>
+      <c r="AE43" s="52"/>
+      <c r="AF43" s="52"/>
+      <c r="AG43" s="52"/>
+      <c r="AH43" s="52"/>
+      <c r="AI43" s="52"/>
       <c r="AJ43" s="30"/>
     </row>
     <row r="44" spans="1:36" ht="15" customHeight="1">
       <c r="A44" s="29"/>
-      <c r="C44" s="90" t="s">
+      <c r="C44" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="D44" s="91"/>
-      <c r="E44" s="91"/>
-      <c r="F44" s="91"/>
-      <c r="G44" s="91"/>
-      <c r="H44" s="91"/>
-      <c r="I44" s="91"/>
-      <c r="J44" s="91"/>
-      <c r="K44" s="92"/>
-      <c r="L44" s="90" t="s">
+      <c r="D44" s="108"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="108"/>
+      <c r="H44" s="108"/>
+      <c r="I44" s="108"/>
+      <c r="J44" s="108"/>
+      <c r="K44" s="109"/>
+      <c r="L44" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="M44" s="91"/>
-      <c r="N44" s="91"/>
-      <c r="O44" s="91"/>
-      <c r="P44" s="91"/>
-      <c r="Q44" s="91"/>
-      <c r="R44" s="92"/>
+      <c r="M44" s="108"/>
+      <c r="N44" s="108"/>
+      <c r="O44" s="108"/>
+      <c r="P44" s="108"/>
+      <c r="Q44" s="108"/>
+      <c r="R44" s="109"/>
       <c r="AC44" s="30"/>
       <c r="AD44" s="29"/>
-      <c r="AE44" s="112"/>
-      <c r="AF44" s="112"/>
-      <c r="AG44" s="112"/>
-      <c r="AH44" s="112"/>
-      <c r="AI44" s="112"/>
+      <c r="AE44" s="52"/>
+      <c r="AF44" s="52"/>
+      <c r="AG44" s="52"/>
+      <c r="AH44" s="52"/>
+      <c r="AI44" s="52"/>
       <c r="AJ44" s="30"/>
     </row>
     <row r="45" spans="1:36" ht="25.5" customHeight="1">
       <c r="A45" s="29"/>
-      <c r="C45" s="65" t="s">
+      <c r="C45" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="D45" s="72"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="72"/>
-      <c r="I45" s="72"/>
-      <c r="J45" s="72"/>
-      <c r="K45" s="73"/>
-      <c r="L45" s="71" t="s">
+      <c r="D45" s="93"/>
+      <c r="E45" s="93"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="93"/>
+      <c r="H45" s="93"/>
+      <c r="I45" s="93"/>
+      <c r="J45" s="93"/>
+      <c r="K45" s="94"/>
+      <c r="L45" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="M45" s="114"/>
-      <c r="N45" s="114"/>
-      <c r="O45" s="114"/>
-      <c r="P45" s="114"/>
-      <c r="Q45" s="114"/>
-      <c r="R45" s="115"/>
+      <c r="M45" s="116"/>
+      <c r="N45" s="116"/>
+      <c r="O45" s="116"/>
+      <c r="P45" s="116"/>
+      <c r="Q45" s="116"/>
+      <c r="R45" s="117"/>
       <c r="AC45" s="30"/>
       <c r="AD45" s="29"/>
-      <c r="AE45" s="112"/>
-      <c r="AF45" s="112"/>
-      <c r="AG45" s="112"/>
-      <c r="AH45" s="112"/>
-      <c r="AI45" s="112"/>
+      <c r="AE45" s="52"/>
+      <c r="AF45" s="52"/>
+      <c r="AG45" s="52"/>
+      <c r="AH45" s="52"/>
+      <c r="AI45" s="52"/>
       <c r="AJ45" s="30"/>
     </row>
     <row r="46" spans="1:36" ht="25.5" customHeight="1">
       <c r="A46" s="29"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="83"/>
-      <c r="H46" s="83"/>
-      <c r="I46" s="83"/>
-      <c r="J46" s="83"/>
-      <c r="K46" s="84"/>
-      <c r="L46" s="116"/>
-      <c r="M46" s="117"/>
-      <c r="N46" s="117"/>
-      <c r="O46" s="117"/>
-      <c r="P46" s="117"/>
-      <c r="Q46" s="117"/>
-      <c r="R46" s="118"/>
+      <c r="C46" s="121"/>
+      <c r="D46" s="122"/>
+      <c r="E46" s="122"/>
+      <c r="F46" s="122"/>
+      <c r="G46" s="122"/>
+      <c r="H46" s="122"/>
+      <c r="I46" s="122"/>
+      <c r="J46" s="122"/>
+      <c r="K46" s="123"/>
+      <c r="L46" s="118"/>
+      <c r="M46" s="119"/>
+      <c r="N46" s="119"/>
+      <c r="O46" s="119"/>
+      <c r="P46" s="119"/>
+      <c r="Q46" s="119"/>
+      <c r="R46" s="120"/>
       <c r="AC46" s="30"/>
       <c r="AD46" s="29"/>
-      <c r="AE46" s="112"/>
-      <c r="AF46" s="112"/>
-      <c r="AG46" s="112"/>
-      <c r="AH46" s="112"/>
-      <c r="AI46" s="112"/>
+      <c r="AE46" s="52"/>
+      <c r="AF46" s="52"/>
+      <c r="AG46" s="52"/>
+      <c r="AH46" s="52"/>
+      <c r="AI46" s="52"/>
       <c r="AJ46" s="30"/>
     </row>
     <row r="47" spans="1:36" ht="15" customHeight="1">
       <c r="A47" s="29"/>
-      <c r="C47" s="90" t="s">
+      <c r="C47" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="91"/>
-      <c r="E47" s="91"/>
-      <c r="F47" s="91"/>
-      <c r="G47" s="91"/>
-      <c r="H47" s="91"/>
-      <c r="I47" s="91"/>
-      <c r="J47" s="91"/>
-      <c r="K47" s="92"/>
-      <c r="L47" s="90" t="s">
+      <c r="D47" s="108"/>
+      <c r="E47" s="108"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="108"/>
+      <c r="I47" s="108"/>
+      <c r="J47" s="108"/>
+      <c r="K47" s="109"/>
+      <c r="L47" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="M47" s="91"/>
-      <c r="N47" s="91"/>
-      <c r="O47" s="91"/>
-      <c r="P47" s="91"/>
-      <c r="Q47" s="91"/>
-      <c r="R47" s="92"/>
+      <c r="M47" s="108"/>
+      <c r="N47" s="108"/>
+      <c r="O47" s="108"/>
+      <c r="P47" s="108"/>
+      <c r="Q47" s="108"/>
+      <c r="R47" s="109"/>
       <c r="AC47" s="30"/>
       <c r="AD47" s="29"/>
-      <c r="AE47" s="112"/>
-      <c r="AF47" s="112"/>
-      <c r="AG47" s="112"/>
-      <c r="AH47" s="112"/>
-      <c r="AI47" s="112"/>
+      <c r="AE47" s="52"/>
+      <c r="AF47" s="52"/>
+      <c r="AG47" s="52"/>
+      <c r="AH47" s="52"/>
+      <c r="AI47" s="52"/>
       <c r="AJ47" s="30"/>
     </row>
     <row r="48" spans="1:36" ht="15" customHeight="1">
       <c r="A48" s="29"/>
-      <c r="C48" s="65" t="s">
+      <c r="C48" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="72"/>
-      <c r="J48" s="72"/>
-      <c r="K48" s="73"/>
-      <c r="L48" s="77" t="s">
+      <c r="D48" s="93"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="93"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="93"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="93"/>
+      <c r="K48" s="94"/>
+      <c r="L48" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="M48" s="78"/>
-      <c r="N48" s="78"/>
-      <c r="O48" s="78"/>
-      <c r="P48" s="78"/>
-      <c r="Q48" s="78"/>
-      <c r="R48" s="79"/>
+      <c r="M48" s="99"/>
+      <c r="N48" s="99"/>
+      <c r="O48" s="99"/>
+      <c r="P48" s="99"/>
+      <c r="Q48" s="99"/>
+      <c r="R48" s="100"/>
       <c r="S48" s="20" t="s">
         <v>76</v>
       </c>
       <c r="AC48" s="30"/>
       <c r="AD48" s="29"/>
-      <c r="AE48" s="112"/>
-      <c r="AF48" s="112"/>
-      <c r="AG48" s="112"/>
-      <c r="AH48" s="112"/>
-      <c r="AI48" s="112"/>
+      <c r="AE48" s="52"/>
+      <c r="AF48" s="52"/>
+      <c r="AG48" s="52"/>
+      <c r="AH48" s="52"/>
+      <c r="AI48" s="52"/>
       <c r="AJ48" s="30"/>
     </row>
     <row r="49" spans="1:36" ht="15" customHeight="1">
       <c r="A49" s="29"/>
-      <c r="C49" s="74"/>
-      <c r="D49" s="75"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="75"/>
-      <c r="G49" s="75"/>
-      <c r="H49" s="75"/>
-      <c r="I49" s="75"/>
-      <c r="J49" s="75"/>
-      <c r="K49" s="76"/>
-      <c r="L49" s="80"/>
-      <c r="M49" s="119"/>
-      <c r="N49" s="119"/>
-      <c r="O49" s="119"/>
-      <c r="P49" s="119"/>
-      <c r="Q49" s="119"/>
-      <c r="R49" s="81"/>
+      <c r="C49" s="95"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="96"/>
+      <c r="F49" s="96"/>
+      <c r="G49" s="96"/>
+      <c r="H49" s="96"/>
+      <c r="I49" s="96"/>
+      <c r="J49" s="96"/>
+      <c r="K49" s="97"/>
+      <c r="L49" s="101"/>
+      <c r="M49" s="102"/>
+      <c r="N49" s="102"/>
+      <c r="O49" s="102"/>
+      <c r="P49" s="102"/>
+      <c r="Q49" s="102"/>
+      <c r="R49" s="103"/>
       <c r="AC49" s="30"/>
       <c r="AD49" s="29"/>
-      <c r="AE49" s="112"/>
-      <c r="AF49" s="112"/>
-      <c r="AG49" s="112"/>
-      <c r="AH49" s="112"/>
-      <c r="AI49" s="112"/>
+      <c r="AE49" s="52"/>
+      <c r="AF49" s="52"/>
+      <c r="AG49" s="52"/>
+      <c r="AH49" s="52"/>
+      <c r="AI49" s="52"/>
       <c r="AJ49" s="30"/>
     </row>
     <row r="50" spans="1:36" ht="15" customHeight="1">
       <c r="A50" s="29"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="75"/>
-      <c r="E50" s="75"/>
-      <c r="F50" s="75"/>
-      <c r="G50" s="75"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="75"/>
-      <c r="J50" s="75"/>
-      <c r="K50" s="76"/>
-      <c r="L50" s="80"/>
-      <c r="M50" s="119"/>
-      <c r="N50" s="119"/>
-      <c r="O50" s="119"/>
-      <c r="P50" s="119"/>
-      <c r="Q50" s="119"/>
-      <c r="R50" s="81"/>
+      <c r="C50" s="95"/>
+      <c r="D50" s="96"/>
+      <c r="E50" s="96"/>
+      <c r="F50" s="96"/>
+      <c r="G50" s="96"/>
+      <c r="H50" s="96"/>
+      <c r="I50" s="96"/>
+      <c r="J50" s="96"/>
+      <c r="K50" s="97"/>
+      <c r="L50" s="101"/>
+      <c r="M50" s="102"/>
+      <c r="N50" s="102"/>
+      <c r="O50" s="102"/>
+      <c r="P50" s="102"/>
+      <c r="Q50" s="102"/>
+      <c r="R50" s="103"/>
       <c r="AC50" s="30"/>
       <c r="AD50" s="29"/>
-      <c r="AE50" s="112"/>
-      <c r="AF50" s="112"/>
-      <c r="AG50" s="112"/>
-      <c r="AH50" s="112"/>
-      <c r="AI50" s="112"/>
+      <c r="AE50" s="52"/>
+      <c r="AF50" s="52"/>
+      <c r="AG50" s="52"/>
+      <c r="AH50" s="52"/>
+      <c r="AI50" s="52"/>
       <c r="AJ50" s="30"/>
     </row>
     <row r="51" spans="1:36" ht="15" customHeight="1">
       <c r="A51" s="29"/>
-      <c r="C51" s="74"/>
-      <c r="D51" s="75"/>
-      <c r="E51" s="75"/>
-      <c r="F51" s="75"/>
-      <c r="G51" s="75"/>
-      <c r="H51" s="75"/>
-      <c r="I51" s="75"/>
-      <c r="J51" s="75"/>
-      <c r="K51" s="76"/>
-      <c r="L51" s="80"/>
-      <c r="M51" s="119"/>
-      <c r="N51" s="119"/>
-      <c r="O51" s="119"/>
-      <c r="P51" s="119"/>
-      <c r="Q51" s="119"/>
-      <c r="R51" s="81"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="96"/>
+      <c r="E51" s="96"/>
+      <c r="F51" s="96"/>
+      <c r="G51" s="96"/>
+      <c r="H51" s="96"/>
+      <c r="I51" s="96"/>
+      <c r="J51" s="96"/>
+      <c r="K51" s="97"/>
+      <c r="L51" s="101"/>
+      <c r="M51" s="102"/>
+      <c r="N51" s="102"/>
+      <c r="O51" s="102"/>
+      <c r="P51" s="102"/>
+      <c r="Q51" s="102"/>
+      <c r="R51" s="103"/>
       <c r="AC51" s="30"/>
       <c r="AD51" s="29"/>
-      <c r="AE51" s="112"/>
-      <c r="AF51" s="112"/>
-      <c r="AG51" s="112"/>
-      <c r="AH51" s="112"/>
-      <c r="AI51" s="112"/>
+      <c r="AE51" s="52"/>
+      <c r="AF51" s="52"/>
+      <c r="AG51" s="52"/>
+      <c r="AH51" s="52"/>
+      <c r="AI51" s="52"/>
       <c r="AJ51" s="30"/>
     </row>
     <row r="52" spans="1:36" ht="15" customHeight="1">
       <c r="A52" s="29"/>
-      <c r="C52" s="74"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="75"/>
-      <c r="H52" s="75"/>
-      <c r="I52" s="75"/>
-      <c r="J52" s="75"/>
-      <c r="K52" s="76"/>
-      <c r="L52" s="80"/>
-      <c r="M52" s="119"/>
-      <c r="N52" s="119"/>
-      <c r="O52" s="119"/>
-      <c r="P52" s="119"/>
-      <c r="Q52" s="119"/>
-      <c r="R52" s="81"/>
+      <c r="C52" s="95"/>
+      <c r="D52" s="96"/>
+      <c r="E52" s="96"/>
+      <c r="F52" s="96"/>
+      <c r="G52" s="96"/>
+      <c r="H52" s="96"/>
+      <c r="I52" s="96"/>
+      <c r="J52" s="96"/>
+      <c r="K52" s="97"/>
+      <c r="L52" s="101"/>
+      <c r="M52" s="102"/>
+      <c r="N52" s="102"/>
+      <c r="O52" s="102"/>
+      <c r="P52" s="102"/>
+      <c r="Q52" s="102"/>
+      <c r="R52" s="103"/>
       <c r="AC52" s="30"/>
       <c r="AD52" s="29"/>
-      <c r="AE52" s="112"/>
-      <c r="AF52" s="112"/>
-      <c r="AG52" s="112"/>
-      <c r="AH52" s="112"/>
-      <c r="AI52" s="112"/>
+      <c r="AE52" s="52"/>
+      <c r="AF52" s="52"/>
+      <c r="AG52" s="52"/>
+      <c r="AH52" s="52"/>
+      <c r="AI52" s="52"/>
       <c r="AJ52" s="30"/>
     </row>
     <row r="53" spans="1:36" ht="15" customHeight="1">
       <c r="A53" s="29"/>
-      <c r="C53" s="74"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="75"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="75"/>
-      <c r="J53" s="75"/>
-      <c r="K53" s="76"/>
-      <c r="L53" s="80"/>
-      <c r="M53" s="119"/>
-      <c r="N53" s="119"/>
-      <c r="O53" s="119"/>
-      <c r="P53" s="119"/>
-      <c r="Q53" s="119"/>
-      <c r="R53" s="81"/>
+      <c r="C53" s="95"/>
+      <c r="D53" s="96"/>
+      <c r="E53" s="96"/>
+      <c r="F53" s="96"/>
+      <c r="G53" s="96"/>
+      <c r="H53" s="96"/>
+      <c r="I53" s="96"/>
+      <c r="J53" s="96"/>
+      <c r="K53" s="97"/>
+      <c r="L53" s="101"/>
+      <c r="M53" s="102"/>
+      <c r="N53" s="102"/>
+      <c r="O53" s="102"/>
+      <c r="P53" s="102"/>
+      <c r="Q53" s="102"/>
+      <c r="R53" s="103"/>
       <c r="AC53" s="30"/>
       <c r="AD53" s="29"/>
-      <c r="AE53" s="112"/>
-      <c r="AF53" s="112"/>
-      <c r="AG53" s="112"/>
-      <c r="AH53" s="112"/>
-      <c r="AI53" s="112"/>
+      <c r="AE53" s="52"/>
+      <c r="AF53" s="52"/>
+      <c r="AG53" s="52"/>
+      <c r="AH53" s="52"/>
+      <c r="AI53" s="52"/>
       <c r="AJ53" s="30"/>
     </row>
     <row r="54" spans="1:36" ht="15" customHeight="1">
       <c r="A54" s="29"/>
-      <c r="C54" s="74"/>
-      <c r="D54" s="75"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="75"/>
-      <c r="G54" s="75"/>
-      <c r="H54" s="75"/>
-      <c r="I54" s="75"/>
-      <c r="J54" s="75"/>
-      <c r="K54" s="76"/>
-      <c r="L54" s="80"/>
-      <c r="M54" s="119"/>
-      <c r="N54" s="119"/>
-      <c r="O54" s="119"/>
-      <c r="P54" s="119"/>
-      <c r="Q54" s="119"/>
-      <c r="R54" s="81"/>
+      <c r="C54" s="95"/>
+      <c r="D54" s="96"/>
+      <c r="E54" s="96"/>
+      <c r="F54" s="96"/>
+      <c r="G54" s="96"/>
+      <c r="H54" s="96"/>
+      <c r="I54" s="96"/>
+      <c r="J54" s="96"/>
+      <c r="K54" s="97"/>
+      <c r="L54" s="101"/>
+      <c r="M54" s="102"/>
+      <c r="N54" s="102"/>
+      <c r="O54" s="102"/>
+      <c r="P54" s="102"/>
+      <c r="Q54" s="102"/>
+      <c r="R54" s="103"/>
       <c r="AC54" s="30"/>
       <c r="AD54" s="29"/>
-      <c r="AE54" s="112"/>
-      <c r="AF54" s="112"/>
-      <c r="AG54" s="112"/>
-      <c r="AH54" s="112"/>
-      <c r="AI54" s="112"/>
+      <c r="AE54" s="52"/>
+      <c r="AF54" s="52"/>
+      <c r="AG54" s="52"/>
+      <c r="AH54" s="52"/>
+      <c r="AI54" s="52"/>
       <c r="AJ54" s="30"/>
     </row>
     <row r="55" spans="1:36" ht="15" customHeight="1">
       <c r="A55" s="29"/>
-      <c r="C55" s="74"/>
-      <c r="D55" s="75"/>
-      <c r="E55" s="75"/>
-      <c r="F55" s="75"/>
-      <c r="G55" s="75"/>
-      <c r="H55" s="75"/>
-      <c r="I55" s="75"/>
-      <c r="J55" s="75"/>
-      <c r="K55" s="76"/>
-      <c r="L55" s="80"/>
-      <c r="M55" s="119"/>
-      <c r="N55" s="119"/>
-      <c r="O55" s="119"/>
-      <c r="P55" s="119"/>
-      <c r="Q55" s="119"/>
-      <c r="R55" s="81"/>
+      <c r="C55" s="95"/>
+      <c r="D55" s="96"/>
+      <c r="E55" s="96"/>
+      <c r="F55" s="96"/>
+      <c r="G55" s="96"/>
+      <c r="H55" s="96"/>
+      <c r="I55" s="96"/>
+      <c r="J55" s="96"/>
+      <c r="K55" s="97"/>
+      <c r="L55" s="101"/>
+      <c r="M55" s="102"/>
+      <c r="N55" s="102"/>
+      <c r="O55" s="102"/>
+      <c r="P55" s="102"/>
+      <c r="Q55" s="102"/>
+      <c r="R55" s="103"/>
       <c r="AC55" s="30"/>
       <c r="AD55" s="29"/>
-      <c r="AE55" s="112"/>
-      <c r="AF55" s="112"/>
-      <c r="AG55" s="112"/>
-      <c r="AH55" s="112"/>
-      <c r="AI55" s="112"/>
+      <c r="AE55" s="52"/>
+      <c r="AF55" s="52"/>
+      <c r="AG55" s="52"/>
+      <c r="AH55" s="52"/>
+      <c r="AI55" s="52"/>
       <c r="AJ55" s="30"/>
     </row>
     <row r="56" spans="1:36" ht="15" customHeight="1">
       <c r="A56" s="29"/>
-      <c r="C56" s="74"/>
-      <c r="D56" s="75"/>
-      <c r="E56" s="75"/>
-      <c r="F56" s="75"/>
-      <c r="G56" s="75"/>
-      <c r="H56" s="75"/>
-      <c r="I56" s="75"/>
-      <c r="J56" s="75"/>
-      <c r="K56" s="76"/>
-      <c r="L56" s="80"/>
-      <c r="M56" s="119"/>
-      <c r="N56" s="119"/>
-      <c r="O56" s="119"/>
-      <c r="P56" s="119"/>
-      <c r="Q56" s="119"/>
-      <c r="R56" s="81"/>
+      <c r="C56" s="95"/>
+      <c r="D56" s="96"/>
+      <c r="E56" s="96"/>
+      <c r="F56" s="96"/>
+      <c r="G56" s="96"/>
+      <c r="H56" s="96"/>
+      <c r="I56" s="96"/>
+      <c r="J56" s="96"/>
+      <c r="K56" s="97"/>
+      <c r="L56" s="101"/>
+      <c r="M56" s="102"/>
+      <c r="N56" s="102"/>
+      <c r="O56" s="102"/>
+      <c r="P56" s="102"/>
+      <c r="Q56" s="102"/>
+      <c r="R56" s="103"/>
       <c r="AC56" s="30"/>
       <c r="AD56" s="29"/>
-      <c r="AE56" s="112"/>
-      <c r="AF56" s="112"/>
-      <c r="AG56" s="112"/>
-      <c r="AH56" s="112"/>
-      <c r="AI56" s="112"/>
+      <c r="AE56" s="52"/>
+      <c r="AF56" s="52"/>
+      <c r="AG56" s="52"/>
+      <c r="AH56" s="52"/>
+      <c r="AI56" s="52"/>
       <c r="AJ56" s="30"/>
     </row>
     <row r="57" spans="1:36" ht="15" customHeight="1">
       <c r="A57" s="29"/>
-      <c r="C57" s="74"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="75"/>
-      <c r="F57" s="75"/>
-      <c r="G57" s="75"/>
-      <c r="H57" s="75"/>
-      <c r="I57" s="75"/>
-      <c r="J57" s="75"/>
-      <c r="K57" s="76"/>
-      <c r="L57" s="80"/>
-      <c r="M57" s="119"/>
-      <c r="N57" s="119"/>
-      <c r="O57" s="119"/>
-      <c r="P57" s="119"/>
-      <c r="Q57" s="119"/>
-      <c r="R57" s="81"/>
+      <c r="C57" s="95"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="96"/>
+      <c r="F57" s="96"/>
+      <c r="G57" s="96"/>
+      <c r="H57" s="96"/>
+      <c r="I57" s="96"/>
+      <c r="J57" s="96"/>
+      <c r="K57" s="97"/>
+      <c r="L57" s="101"/>
+      <c r="M57" s="102"/>
+      <c r="N57" s="102"/>
+      <c r="O57" s="102"/>
+      <c r="P57" s="102"/>
+      <c r="Q57" s="102"/>
+      <c r="R57" s="103"/>
       <c r="AC57" s="30"/>
       <c r="AD57" s="29"/>
-      <c r="AE57" s="112"/>
-      <c r="AF57" s="112"/>
-      <c r="AG57" s="112"/>
-      <c r="AH57" s="112"/>
-      <c r="AI57" s="112"/>
+      <c r="AE57" s="52"/>
+      <c r="AF57" s="52"/>
+      <c r="AG57" s="52"/>
+      <c r="AH57" s="52"/>
+      <c r="AI57" s="52"/>
       <c r="AJ57" s="30"/>
     </row>
     <row r="58" spans="1:36" ht="15" customHeight="1">
       <c r="A58" s="29"/>
-      <c r="C58" s="74"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="75"/>
-      <c r="F58" s="75"/>
-      <c r="G58" s="75"/>
-      <c r="H58" s="75"/>
-      <c r="I58" s="75"/>
-      <c r="J58" s="75"/>
-      <c r="K58" s="76"/>
-      <c r="L58" s="80"/>
-      <c r="M58" s="119"/>
-      <c r="N58" s="119"/>
-      <c r="O58" s="119"/>
-      <c r="P58" s="119"/>
-      <c r="Q58" s="119"/>
-      <c r="R58" s="81"/>
+      <c r="C58" s="95"/>
+      <c r="D58" s="96"/>
+      <c r="E58" s="96"/>
+      <c r="F58" s="96"/>
+      <c r="G58" s="96"/>
+      <c r="H58" s="96"/>
+      <c r="I58" s="96"/>
+      <c r="J58" s="96"/>
+      <c r="K58" s="97"/>
+      <c r="L58" s="101"/>
+      <c r="M58" s="102"/>
+      <c r="N58" s="102"/>
+      <c r="O58" s="102"/>
+      <c r="P58" s="102"/>
+      <c r="Q58" s="102"/>
+      <c r="R58" s="103"/>
       <c r="AC58" s="30"/>
       <c r="AD58" s="29"/>
-      <c r="AE58" s="112"/>
-      <c r="AF58" s="112"/>
-      <c r="AG58" s="112"/>
-      <c r="AH58" s="112"/>
-      <c r="AI58" s="112"/>
+      <c r="AE58" s="52"/>
+      <c r="AF58" s="52"/>
+      <c r="AG58" s="52"/>
+      <c r="AH58" s="52"/>
+      <c r="AI58" s="52"/>
       <c r="AJ58" s="30"/>
     </row>
     <row r="59" spans="1:36" ht="15" customHeight="1">
       <c r="A59" s="29"/>
-      <c r="C59" s="74"/>
-      <c r="D59" s="75"/>
-      <c r="E59" s="75"/>
-      <c r="F59" s="75"/>
-      <c r="G59" s="75"/>
-      <c r="H59" s="75"/>
-      <c r="I59" s="75"/>
-      <c r="J59" s="75"/>
-      <c r="K59" s="76"/>
-      <c r="L59" s="80"/>
-      <c r="M59" s="119"/>
-      <c r="N59" s="119"/>
-      <c r="O59" s="119"/>
-      <c r="P59" s="119"/>
-      <c r="Q59" s="119"/>
-      <c r="R59" s="81"/>
+      <c r="C59" s="95"/>
+      <c r="D59" s="96"/>
+      <c r="E59" s="96"/>
+      <c r="F59" s="96"/>
+      <c r="G59" s="96"/>
+      <c r="H59" s="96"/>
+      <c r="I59" s="96"/>
+      <c r="J59" s="96"/>
+      <c r="K59" s="97"/>
+      <c r="L59" s="101"/>
+      <c r="M59" s="102"/>
+      <c r="N59" s="102"/>
+      <c r="O59" s="102"/>
+      <c r="P59" s="102"/>
+      <c r="Q59" s="102"/>
+      <c r="R59" s="103"/>
       <c r="AC59" s="30"/>
       <c r="AD59" s="29"/>
-      <c r="AE59" s="112"/>
-      <c r="AF59" s="112"/>
-      <c r="AG59" s="112"/>
-      <c r="AH59" s="112"/>
-      <c r="AI59" s="112"/>
+      <c r="AE59" s="52"/>
+      <c r="AF59" s="52"/>
+      <c r="AG59" s="52"/>
+      <c r="AH59" s="52"/>
+      <c r="AI59" s="52"/>
       <c r="AJ59" s="30"/>
     </row>
     <row r="60" spans="1:36" ht="16.5" customHeight="1">
       <c r="A60" s="29"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="75"/>
-      <c r="F60" s="75"/>
-      <c r="G60" s="75"/>
-      <c r="H60" s="75"/>
-      <c r="I60" s="75"/>
-      <c r="J60" s="75"/>
-      <c r="K60" s="76"/>
-      <c r="L60" s="120"/>
-      <c r="M60" s="121"/>
-      <c r="N60" s="121"/>
-      <c r="O60" s="121"/>
-      <c r="P60" s="121"/>
-      <c r="Q60" s="121"/>
-      <c r="R60" s="122"/>
+      <c r="C60" s="95"/>
+      <c r="D60" s="96"/>
+      <c r="E60" s="96"/>
+      <c r="F60" s="96"/>
+      <c r="G60" s="96"/>
+      <c r="H60" s="96"/>
+      <c r="I60" s="96"/>
+      <c r="J60" s="96"/>
+      <c r="K60" s="97"/>
+      <c r="L60" s="104"/>
+      <c r="M60" s="105"/>
+      <c r="N60" s="105"/>
+      <c r="O60" s="105"/>
+      <c r="P60" s="105"/>
+      <c r="Q60" s="105"/>
+      <c r="R60" s="106"/>
       <c r="AC60" s="30"/>
       <c r="AD60" s="29"/>
-      <c r="AE60" s="112"/>
-      <c r="AF60" s="112"/>
-      <c r="AG60" s="112"/>
-      <c r="AH60" s="112"/>
-      <c r="AI60" s="112"/>
+      <c r="AE60" s="52"/>
+      <c r="AF60" s="52"/>
+      <c r="AG60" s="52"/>
+      <c r="AH60" s="52"/>
+      <c r="AI60" s="52"/>
       <c r="AJ60" s="30"/>
     </row>
     <row r="61" spans="1:36" ht="15" customHeight="1">
       <c r="A61" s="29"/>
-      <c r="C61" s="90" t="s">
+      <c r="C61" s="107" t="s">
         <v>77</v>
       </c>
-      <c r="D61" s="91"/>
-      <c r="E61" s="91"/>
-      <c r="F61" s="91"/>
-      <c r="G61" s="91"/>
-      <c r="H61" s="91"/>
-      <c r="I61" s="91"/>
-      <c r="J61" s="91"/>
-      <c r="K61" s="92"/>
-      <c r="L61" s="90" t="s">
+      <c r="D61" s="108"/>
+      <c r="E61" s="108"/>
+      <c r="F61" s="108"/>
+      <c r="G61" s="108"/>
+      <c r="H61" s="108"/>
+      <c r="I61" s="108"/>
+      <c r="J61" s="108"/>
+      <c r="K61" s="109"/>
+      <c r="L61" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="M61" s="91"/>
-      <c r="N61" s="91"/>
-      <c r="O61" s="91"/>
-      <c r="P61" s="91"/>
-      <c r="Q61" s="91"/>
-      <c r="R61" s="92"/>
+      <c r="M61" s="108"/>
+      <c r="N61" s="108"/>
+      <c r="O61" s="108"/>
+      <c r="P61" s="108"/>
+      <c r="Q61" s="108"/>
+      <c r="R61" s="109"/>
       <c r="AC61" s="30"/>
       <c r="AD61" s="29"/>
-      <c r="AE61" s="112"/>
-      <c r="AF61" s="112"/>
-      <c r="AG61" s="112"/>
-      <c r="AH61" s="112"/>
-      <c r="AI61" s="112"/>
+      <c r="AE61" s="52"/>
+      <c r="AF61" s="52"/>
+      <c r="AG61" s="52"/>
+      <c r="AH61" s="52"/>
+      <c r="AI61" s="52"/>
       <c r="AJ61" s="30"/>
     </row>
     <row r="62" spans="1:36" ht="15" customHeight="1">
       <c r="A62" s="29"/>
-      <c r="C62" s="65" t="s">
+      <c r="C62" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="D62" s="66"/>
-      <c r="E62" s="66"/>
-      <c r="F62" s="66"/>
-      <c r="G62" s="66"/>
-      <c r="H62" s="66"/>
-      <c r="I62" s="66"/>
-      <c r="J62" s="66"/>
-      <c r="K62" s="67"/>
-      <c r="L62" s="71" t="s">
+      <c r="D62" s="110"/>
+      <c r="E62" s="110"/>
+      <c r="F62" s="110"/>
+      <c r="G62" s="110"/>
+      <c r="H62" s="110"/>
+      <c r="I62" s="110"/>
+      <c r="J62" s="110"/>
+      <c r="K62" s="111"/>
+      <c r="L62" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="M62" s="114"/>
-      <c r="N62" s="114"/>
-      <c r="O62" s="114"/>
-      <c r="P62" s="114"/>
-      <c r="Q62" s="114"/>
-      <c r="R62" s="115"/>
+      <c r="M62" s="116"/>
+      <c r="N62" s="116"/>
+      <c r="O62" s="116"/>
+      <c r="P62" s="116"/>
+      <c r="Q62" s="116"/>
+      <c r="R62" s="117"/>
       <c r="AC62" s="30"/>
       <c r="AD62" s="29"/>
-      <c r="AE62" s="112"/>
-      <c r="AF62" s="112"/>
-      <c r="AG62" s="112"/>
-      <c r="AH62" s="112"/>
-      <c r="AI62" s="112"/>
+      <c r="AE62" s="52"/>
+      <c r="AF62" s="52"/>
+      <c r="AG62" s="52"/>
+      <c r="AH62" s="52"/>
+      <c r="AI62" s="52"/>
       <c r="AJ62" s="30"/>
     </row>
     <row r="63" spans="1:36" ht="15" customHeight="1">
       <c r="A63" s="29"/>
-      <c r="C63" s="68"/>
-      <c r="D63" s="69"/>
-      <c r="E63" s="69"/>
-      <c r="F63" s="69"/>
-      <c r="G63" s="69"/>
-      <c r="H63" s="69"/>
-      <c r="I63" s="69"/>
-      <c r="J63" s="69"/>
-      <c r="K63" s="70"/>
-      <c r="L63" s="116"/>
-      <c r="M63" s="117"/>
-      <c r="N63" s="117"/>
-      <c r="O63" s="117"/>
-      <c r="P63" s="117"/>
-      <c r="Q63" s="117"/>
-      <c r="R63" s="118"/>
+      <c r="C63" s="112"/>
+      <c r="D63" s="113"/>
+      <c r="E63" s="113"/>
+      <c r="F63" s="113"/>
+      <c r="G63" s="113"/>
+      <c r="H63" s="113"/>
+      <c r="I63" s="113"/>
+      <c r="J63" s="113"/>
+      <c r="K63" s="114"/>
+      <c r="L63" s="118"/>
+      <c r="M63" s="119"/>
+      <c r="N63" s="119"/>
+      <c r="O63" s="119"/>
+      <c r="P63" s="119"/>
+      <c r="Q63" s="119"/>
+      <c r="R63" s="120"/>
       <c r="AC63" s="30"/>
       <c r="AD63" s="29"/>
-      <c r="AE63" s="112"/>
-      <c r="AF63" s="112"/>
-      <c r="AG63" s="112"/>
-      <c r="AH63" s="112"/>
-      <c r="AI63" s="112"/>
+      <c r="AE63" s="52"/>
+      <c r="AF63" s="52"/>
+      <c r="AG63" s="52"/>
+      <c r="AH63" s="52"/>
+      <c r="AI63" s="52"/>
       <c r="AJ63" s="30"/>
     </row>
     <row r="64" spans="1:36" ht="15" customHeight="1">
       <c r="A64" s="29"/>
       <c r="AC64" s="30"/>
       <c r="AD64" s="29"/>
-      <c r="AE64" s="112"/>
-      <c r="AF64" s="112"/>
-      <c r="AG64" s="112"/>
-      <c r="AH64" s="112"/>
-      <c r="AI64" s="112"/>
+      <c r="AE64" s="52"/>
+      <c r="AF64" s="52"/>
+      <c r="AG64" s="52"/>
+      <c r="AH64" s="52"/>
+      <c r="AI64" s="52"/>
       <c r="AJ64" s="30"/>
     </row>
     <row r="65" spans="1:36" ht="15" customHeight="1">
@@ -5938,11 +5929,11 @@
       </c>
       <c r="AC65" s="30"/>
       <c r="AD65" s="29"/>
-      <c r="AE65" s="112"/>
-      <c r="AF65" s="112"/>
-      <c r="AG65" s="112"/>
-      <c r="AH65" s="112"/>
-      <c r="AI65" s="112"/>
+      <c r="AE65" s="52"/>
+      <c r="AF65" s="52"/>
+      <c r="AG65" s="52"/>
+      <c r="AH65" s="52"/>
+      <c r="AI65" s="52"/>
       <c r="AJ65" s="30"/>
     </row>
     <row r="66" spans="1:36" ht="15" customHeight="1">
@@ -5952,11 +5943,11 @@
       </c>
       <c r="AC66" s="30"/>
       <c r="AD66" s="29"/>
-      <c r="AE66" s="112"/>
-      <c r="AF66" s="112"/>
-      <c r="AG66" s="112"/>
-      <c r="AH66" s="112"/>
-      <c r="AI66" s="112"/>
+      <c r="AE66" s="52"/>
+      <c r="AF66" s="52"/>
+      <c r="AG66" s="52"/>
+      <c r="AH66" s="52"/>
+      <c r="AI66" s="52"/>
       <c r="AJ66" s="30"/>
     </row>
     <row r="67" spans="1:36" ht="15" customHeight="1">
@@ -5964,11 +5955,11 @@
       <c r="B67" s="42"/>
       <c r="AC67" s="30"/>
       <c r="AD67" s="29"/>
-      <c r="AE67" s="112"/>
-      <c r="AF67" s="112"/>
-      <c r="AG67" s="112"/>
-      <c r="AH67" s="112"/>
-      <c r="AI67" s="112"/>
+      <c r="AE67" s="52"/>
+      <c r="AF67" s="52"/>
+      <c r="AG67" s="52"/>
+      <c r="AH67" s="52"/>
+      <c r="AI67" s="52"/>
       <c r="AJ67" s="30"/>
     </row>
     <row r="68" spans="1:36" ht="15" customHeight="1">
@@ -5981,11 +5972,11 @@
       </c>
       <c r="AC68" s="30"/>
       <c r="AD68" s="29"/>
-      <c r="AE68" s="112"/>
-      <c r="AF68" s="112"/>
-      <c r="AG68" s="112"/>
-      <c r="AH68" s="112"/>
-      <c r="AI68" s="112"/>
+      <c r="AE68" s="52"/>
+      <c r="AF68" s="52"/>
+      <c r="AG68" s="52"/>
+      <c r="AH68" s="52"/>
+      <c r="AI68" s="52"/>
       <c r="AJ68" s="30"/>
     </row>
     <row r="69" spans="1:36" ht="15" customHeight="1">
@@ -5995,22 +5986,22 @@
       </c>
       <c r="AC69" s="30"/>
       <c r="AD69" s="29"/>
-      <c r="AE69" s="112"/>
-      <c r="AF69" s="112"/>
-      <c r="AG69" s="112"/>
-      <c r="AH69" s="112"/>
-      <c r="AI69" s="112"/>
+      <c r="AE69" s="52"/>
+      <c r="AF69" s="52"/>
+      <c r="AG69" s="52"/>
+      <c r="AH69" s="52"/>
+      <c r="AI69" s="52"/>
       <c r="AJ69" s="30"/>
     </row>
     <row r="70" spans="1:36" ht="15" customHeight="1">
       <c r="A70" s="29"/>
       <c r="AC70" s="30"/>
       <c r="AD70" s="29"/>
-      <c r="AE70" s="112"/>
-      <c r="AF70" s="112"/>
-      <c r="AG70" s="112"/>
-      <c r="AH70" s="112"/>
-      <c r="AI70" s="112"/>
+      <c r="AE70" s="52"/>
+      <c r="AF70" s="52"/>
+      <c r="AG70" s="52"/>
+      <c r="AH70" s="52"/>
+      <c r="AI70" s="52"/>
       <c r="AJ70" s="30"/>
     </row>
     <row r="71" spans="1:36" ht="15" customHeight="1">
@@ -6023,11 +6014,11 @@
       </c>
       <c r="AC71" s="30"/>
       <c r="AD71" s="29"/>
-      <c r="AE71" s="112"/>
-      <c r="AF71" s="112"/>
-      <c r="AG71" s="112"/>
-      <c r="AH71" s="112"/>
-      <c r="AI71" s="112"/>
+      <c r="AE71" s="52"/>
+      <c r="AF71" s="52"/>
+      <c r="AG71" s="52"/>
+      <c r="AH71" s="52"/>
+      <c r="AI71" s="52"/>
       <c r="AJ71" s="30"/>
     </row>
     <row r="72" spans="1:36" ht="15" customHeight="1">
@@ -6037,11 +6028,11 @@
       </c>
       <c r="AC72" s="30"/>
       <c r="AD72" s="29"/>
-      <c r="AE72" s="112"/>
-      <c r="AF72" s="112"/>
-      <c r="AG72" s="112"/>
-      <c r="AH72" s="112"/>
-      <c r="AI72" s="112"/>
+      <c r="AE72" s="52"/>
+      <c r="AF72" s="52"/>
+      <c r="AG72" s="52"/>
+      <c r="AH72" s="52"/>
+      <c r="AI72" s="52"/>
       <c r="AJ72" s="30"/>
     </row>
     <row r="73" spans="1:36" ht="15" customHeight="1">
@@ -6051,22 +6042,22 @@
       </c>
       <c r="AC73" s="30"/>
       <c r="AD73" s="29"/>
-      <c r="AE73" s="112"/>
-      <c r="AF73" s="112"/>
-      <c r="AG73" s="112"/>
-      <c r="AH73" s="112"/>
-      <c r="AI73" s="112"/>
+      <c r="AE73" s="52"/>
+      <c r="AF73" s="52"/>
+      <c r="AG73" s="52"/>
+      <c r="AH73" s="52"/>
+      <c r="AI73" s="52"/>
       <c r="AJ73" s="30"/>
     </row>
     <row r="74" spans="1:36" ht="15" customHeight="1">
       <c r="A74" s="29"/>
       <c r="AC74" s="30"/>
       <c r="AD74" s="29"/>
-      <c r="AE74" s="112"/>
-      <c r="AF74" s="112"/>
-      <c r="AG74" s="112"/>
-      <c r="AH74" s="112"/>
-      <c r="AI74" s="112"/>
+      <c r="AE74" s="52"/>
+      <c r="AF74" s="52"/>
+      <c r="AG74" s="52"/>
+      <c r="AH74" s="52"/>
+      <c r="AI74" s="52"/>
       <c r="AJ74" s="30"/>
     </row>
     <row r="75" spans="1:36" ht="15" customHeight="1">
@@ -6104,11 +6095,11 @@
       <c r="AB75" s="46"/>
       <c r="AC75" s="30"/>
       <c r="AD75" s="29"/>
-      <c r="AE75" s="112"/>
-      <c r="AF75" s="112"/>
-      <c r="AG75" s="112"/>
-      <c r="AH75" s="112"/>
-      <c r="AI75" s="112"/>
+      <c r="AE75" s="52"/>
+      <c r="AF75" s="52"/>
+      <c r="AG75" s="52"/>
+      <c r="AH75" s="52"/>
+      <c r="AI75" s="52"/>
       <c r="AJ75" s="30"/>
     </row>
     <row r="76" spans="1:36" ht="15" customHeight="1">
@@ -6144,11 +6135,11 @@
       <c r="AB76" s="46"/>
       <c r="AC76" s="30"/>
       <c r="AD76" s="29"/>
-      <c r="AE76" s="112"/>
-      <c r="AF76" s="112"/>
-      <c r="AG76" s="112"/>
-      <c r="AH76" s="112"/>
-      <c r="AI76" s="112"/>
+      <c r="AE76" s="52"/>
+      <c r="AF76" s="52"/>
+      <c r="AG76" s="52"/>
+      <c r="AH76" s="52"/>
+      <c r="AI76" s="52"/>
       <c r="AJ76" s="30"/>
     </row>
     <row r="77" spans="1:36" ht="15" customHeight="1">
@@ -6184,11 +6175,11 @@
       <c r="AB77" s="46"/>
       <c r="AC77" s="30"/>
       <c r="AD77" s="29"/>
-      <c r="AE77" s="112"/>
-      <c r="AF77" s="112"/>
-      <c r="AG77" s="112"/>
-      <c r="AH77" s="112"/>
-      <c r="AI77" s="112"/>
+      <c r="AE77" s="52"/>
+      <c r="AF77" s="52"/>
+      <c r="AG77" s="52"/>
+      <c r="AH77" s="52"/>
+      <c r="AI77" s="52"/>
       <c r="AJ77" s="30"/>
     </row>
     <row r="78" spans="1:36" ht="15" customHeight="1">
@@ -6231,65 +6222,6 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="C48:K60"/>
-    <mergeCell ref="L48:R60"/>
-    <mergeCell ref="C61:K61"/>
-    <mergeCell ref="L61:R61"/>
-    <mergeCell ref="C62:K63"/>
-    <mergeCell ref="L62:R63"/>
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="L44:R44"/>
-    <mergeCell ref="C45:K46"/>
-    <mergeCell ref="L45:R46"/>
-    <mergeCell ref="C47:K47"/>
-    <mergeCell ref="L47:R47"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="L42:R42"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="L43:R43"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:R40"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L41:R41"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="L38:R38"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:R39"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="L36:R36"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="L37:R37"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="L34:R34"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="L35:R35"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="L32:R32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="L33:R33"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="L30:R30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="L31:R31"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="L27:R27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="L28:R28"/>
     <mergeCell ref="D29:G29"/>
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:R29"/>
@@ -6306,6 +6238,65 @@
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="AA1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="L27:R27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:R28"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:R30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:R31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:R32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:R33"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:R34"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:R35"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:R36"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:R37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:R38"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:R39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:R40"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:R41"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:R42"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:R43"/>
+    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="L44:R44"/>
+    <mergeCell ref="C45:K46"/>
+    <mergeCell ref="L45:R46"/>
+    <mergeCell ref="C47:K47"/>
+    <mergeCell ref="L47:R47"/>
+    <mergeCell ref="C48:K60"/>
+    <mergeCell ref="L48:R60"/>
+    <mergeCell ref="C61:K61"/>
+    <mergeCell ref="L61:R61"/>
+    <mergeCell ref="C62:K63"/>
+    <mergeCell ref="L62:R63"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/03.設計/詳細設計書_STB08（BFS）.xlsx
+++ b/03.設計/詳細設計書_STB08（BFS）.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13212" tabRatio="888"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14484" tabRatio="888"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="159" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="99">
   <si>
     <t>プロジェクト番号</t>
     <rPh sb="6" eb="8">
@@ -1273,10 +1273,6 @@
       <t>ブショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TM</t>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -2678,9 +2674,9 @@
       <c r="P1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="65" t="str">
+      <c r="Q1" s="65">
         <f>D5</f>
-        <v>TM</v>
+        <v>0</v>
       </c>
       <c r="R1" s="65"/>
     </row>
@@ -2767,9 +2763,7 @@
         <v>45180</v>
       </c>
       <c r="C5" s="68"/>
-      <c r="D5" s="69" t="s">
-        <v>99</v>
-      </c>
+      <c r="D5" s="69"/>
       <c r="E5" s="69"/>
       <c r="F5" s="69" t="s">
         <v>15</v>
@@ -3316,9 +3310,9 @@
         <v>19</v>
       </c>
       <c r="Z1" s="82"/>
-      <c r="AA1" s="84" t="str">
+      <c r="AA1" s="84">
         <f>更新履歴!D5</f>
-        <v>TM</v>
+        <v>0</v>
       </c>
       <c r="AB1" s="84"/>
       <c r="AC1" s="84"/>
@@ -3327,9 +3321,9 @@
         <v>20</v>
       </c>
       <c r="AF1" s="84"/>
-      <c r="AG1" s="83" t="str">
+      <c r="AG1" s="83">
         <f>VLOOKUP(MAX(更新履歴!B:B),更新履歴!B:D,3,FALSE)</f>
-        <v>TM</v>
+        <v>0</v>
       </c>
       <c r="AH1" s="84"/>
       <c r="AI1" s="84"/>
@@ -4181,9 +4175,9 @@
         <v>19</v>
       </c>
       <c r="Z1" s="82"/>
-      <c r="AA1" s="84" t="str">
+      <c r="AA1" s="84">
         <f>更新履歴!D5</f>
-        <v>TM</v>
+        <v>0</v>
       </c>
       <c r="AB1" s="84"/>
       <c r="AC1" s="84"/>
@@ -4192,9 +4186,9 @@
         <v>20</v>
       </c>
       <c r="AF1" s="84"/>
-      <c r="AG1" s="83" t="str">
+      <c r="AG1" s="83">
         <f>VLOOKUP(MAX(更新履歴!B:B),更新履歴!B:D,3,FALSE)</f>
-        <v>TM</v>
+        <v>0</v>
       </c>
       <c r="AH1" s="84"/>
       <c r="AI1" s="84"/>

--- a/03.設計/詳細設計書_STB08（BFS）.xlsx
+++ b/03.設計/詳細設計書_STB08（BFS）.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\仕事\株式会社シスコム・テクノロジー\目標\2023年度上期\python-game-project-main\03.設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micch\OneDrive\デスクトップ\PGP\03.設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC787A52-1E5B-4925-AD48-D97F69F86950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="888"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="159" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="範囲１" localSheetId="2">#REF!</definedName>
     <definedName name="範囲１">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -327,9 +326,6 @@
     <t>distの初期化</t>
   </si>
   <si>
-    <t>幅優先探索法(BFS)から次の移動方向を取得</t>
-  </si>
-  <si>
     <t>&lt;distの初期化&gt;</t>
     <rPh sb="6" eb="9">
       <t>ショキカ</t>
@@ -404,16 +400,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>distの初期化を行う</t>
-    <rPh sb="5" eb="8">
-      <t>ショキカ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>フィールドをコピー</t>
   </si>
   <si>
@@ -576,13 +562,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>フィールドのコピーを作成</t>
-    <rPh sb="10" eb="12">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ナンバリング用の数字を設定（EDGE=1のため、初期は2に設定）</t>
     <rPh sb="11" eb="13">
       <t>セッテイ</t>
@@ -905,6 +884,27 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>幅優先探索法(BFS)から次の移動方向を取得</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>distの初期化を行う（＜distの初期化＞）</t>
+    <rPh sb="5" eb="8">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フィールドのコピーを作成（＜幅優先探索法より、目的地のルートをマッピング(distを設定)＞）</t>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -912,7 +912,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
@@ -1400,6 +1400,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1418,6 +1433,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1427,29 +1469,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1469,15 +1502,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1495,38 +1522,11 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準_生産計画ED書" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_生産計画ED書" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1871,7 +1871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:P22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -1902,34 +1902,34 @@
     </row>
     <row r="6" spans="3:16" ht="49.2" customHeight="1">
       <c r="C6" s="7"/>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="3:16" ht="49.2" customHeight="1">
       <c r="C7" s="7"/>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="3:16" ht="22.5" customHeight="1" thickBot="1">
@@ -1948,82 +1948,82 @@
     </row>
     <row r="9" spans="3:16" ht="22.5" customHeight="1" thickTop="1"/>
     <row r="11" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="43" t="s">
+      <c r="G11" s="47"/>
+      <c r="H11" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="45"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="50"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
     </row>
     <row r="12" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="41" t="s">
+      <c r="G12" s="47"/>
+      <c r="H12" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="42"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="47"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
     </row>
     <row r="13" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="42"/>
-      <c r="H13" s="43" t="s">
+      <c r="G13" s="47"/>
+      <c r="H13" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="45"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="50"/>
     </row>
     <row r="14" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="43" t="s">
+      <c r="G14" s="47"/>
+      <c r="H14" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="45"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="50"/>
     </row>
     <row r="15" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43" t="s">
+      <c r="G15" s="47"/>
+      <c r="H15" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="45"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="50"/>
     </row>
     <row r="16" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F16" s="41" t="s">
+      <c r="F16" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="45"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="50"/>
       <c r="N16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="7:16" ht="22.5" customHeight="1">
@@ -2077,7 +2077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -2203,405 +2203,405 @@
       <c r="A5" s="22">
         <v>1</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="57">
         <v>45177</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50" t="s">
+      <c r="C5" s="57"/>
+      <c r="D5" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50" t="s">
+      <c r="E5" s="58"/>
+      <c r="F5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="51" t="s">
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="23">
         <v>2</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="23">
         <v>3</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="23">
         <v>4</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="23">
         <v>5</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="23">
         <v>6</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="23">
         <v>7</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="23">
         <v>8</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="23">
         <v>9</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="23">
         <v>10</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="23">
         <v>11</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="23">
         <v>12</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="23">
         <v>13</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="23">
         <v>14</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="23">
         <v>15</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="23">
         <v>16</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="23">
         <v>17</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="62"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="23">
         <v>18</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1"/>
     <row r="24" spans="1:18" ht="27" customHeight="1"/>
@@ -2612,6 +2612,78 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:R21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:R22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:R19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:R20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:R17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:R18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:R11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:R12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:R9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:R10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:O2"/>
     <mergeCell ref="Q1:R1"/>
@@ -2620,78 +2692,6 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:R4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:R9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:R10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:R11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:R12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:R17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:R18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:R19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:R20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:R21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:R22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -2701,8 +2701,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AJ76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ77"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2721,112 +2721,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="63" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="69" t="str">
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="78" t="str">
         <f>表紙!D6</f>
         <v>Street Biter (BFS)</v>
       </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="63" t="s">
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="73" t="str">
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="64" t="str">
         <f>更新履歴!D5</f>
         <v>RN</v>
       </c>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73" t="s">
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="72" t="str">
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="63" t="str">
         <f>VLOOKUP(MAX(更新履歴!B:B),更新履歴!B:D,3,FALSE)</f>
         <v>RN</v>
       </c>
-      <c r="AH1" s="73"/>
-      <c r="AI1" s="73"/>
-      <c r="AJ1" s="73"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="66" t="str">
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="75" t="str">
         <f>RIGHT(表紙!D7,LEN(表紙!D7)-FIND("_",表紙!D7))</f>
         <v>08_ENEMY</v>
       </c>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="63" t="s">
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="74">
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="65">
         <f>更新履歴!B5</f>
         <v>45177</v>
       </c>
-      <c r="AB2" s="74"/>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="73" t="s">
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="74">
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="65">
         <f>MAX(更新履歴!B:B)</f>
         <v>45177</v>
       </c>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="74"/>
-      <c r="AJ2" s="74"/>
+      <c r="AH2" s="65"/>
+      <c r="AI2" s="65"/>
+      <c r="AJ2" s="65"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1">
       <c r="A3" s="35"/>
@@ -2872,63 +2872,63 @@
       <c r="AJ4" s="37"/>
     </row>
     <row r="5" spans="1:36" ht="15" customHeight="1">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="41" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AD5" s="76"/>
-      <c r="AE5" s="76"/>
-      <c r="AF5" s="76"/>
-      <c r="AG5" s="76"/>
-      <c r="AH5" s="76"/>
-      <c r="AI5" s="76"/>
+      <c r="AD5" s="40"/>
+      <c r="AE5" s="40"/>
+      <c r="AF5" s="40"/>
+      <c r="AG5" s="40"/>
+      <c r="AH5" s="40"/>
+      <c r="AI5" s="40"/>
       <c r="AJ5" s="27"/>
     </row>
     <row r="6" spans="1:36" ht="15" customHeight="1">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="41" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="40"/>
+      <c r="AG6" s="40"/>
+      <c r="AH6" s="40"/>
+      <c r="AI6" s="40"/>
+      <c r="AJ6" s="27"/>
+    </row>
+    <row r="7" spans="1:36" ht="15" customHeight="1">
+      <c r="A7" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="AD6" s="76"/>
-      <c r="AE6" s="76"/>
-      <c r="AF6" s="76"/>
-      <c r="AG6" s="76"/>
-      <c r="AH6" s="76"/>
-      <c r="AI6" s="76"/>
-      <c r="AJ6" s="27"/>
-    </row>
-    <row r="7" spans="1:36" ht="15" customHeight="1">
-      <c r="A7" s="77" t="s">
+      <c r="AD7" s="40"/>
+      <c r="AE7" s="40"/>
+      <c r="AF7" s="40"/>
+      <c r="AG7" s="40"/>
+      <c r="AH7" s="40"/>
+      <c r="AI7" s="40"/>
+      <c r="AJ7" s="27"/>
+    </row>
+    <row r="8" spans="1:36" ht="15" customHeight="1">
+      <c r="A8" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD7" s="76"/>
-      <c r="AE7" s="76"/>
-      <c r="AF7" s="76"/>
-      <c r="AG7" s="76"/>
-      <c r="AH7" s="76"/>
-      <c r="AI7" s="76"/>
-      <c r="AJ7" s="27"/>
-    </row>
-    <row r="8" spans="1:36" ht="15" customHeight="1">
-      <c r="A8" s="77" t="s">
-        <v>24</v>
-      </c>
       <c r="B8" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD8" s="76"/>
-      <c r="AE8" s="76"/>
-      <c r="AF8" s="76"/>
-      <c r="AG8" s="76"/>
-      <c r="AH8" s="76"/>
-      <c r="AI8" s="76"/>
+        <v>92</v>
+      </c>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="40"/>
+      <c r="AG8" s="40"/>
+      <c r="AH8" s="40"/>
+      <c r="AI8" s="40"/>
       <c r="AJ8" s="27"/>
     </row>
     <row r="9" spans="1:36" ht="15" hidden="1" customHeight="1">
@@ -3029,7 +3029,7 @@
       <c r="B15" s="17"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
-      <c r="AD15" s="30"/>
+      <c r="AD15" s="40"/>
       <c r="AE15" s="30"/>
       <c r="AF15" s="30"/>
       <c r="AG15" s="30"/>
@@ -3038,60 +3038,65 @@
       <c r="AJ15" s="31"/>
     </row>
     <row r="16" spans="1:36" ht="15" customHeight="1">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="25"/>
+      <c r="B16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="40"/>
+      <c r="AF16" s="40"/>
+      <c r="AG16" s="40"/>
+      <c r="AH16" s="40"/>
+      <c r="AI16" s="40"/>
+      <c r="AJ16" s="27"/>
+    </row>
+    <row r="17" spans="1:36" ht="15" customHeight="1">
+      <c r="A17" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="24"/>
-      <c r="AA16" s="24"/>
-      <c r="AB16" s="24"/>
-      <c r="AC16" s="37"/>
-      <c r="AD16" s="34" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="37"/>
+      <c r="AD17" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="AJ16" s="27"/>
-    </row>
-    <row r="17" spans="1:36" ht="15" customHeight="1">
-      <c r="A17" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="26"/>
-      <c r="AJ17" s="27"/>
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="24"/>
+      <c r="AG17" s="24"/>
+      <c r="AH17" s="24"/>
+      <c r="AI17" s="24"/>
+      <c r="AJ17" s="37"/>
     </row>
     <row r="18" spans="1:36" ht="15" customHeight="1">
-      <c r="A18" s="80" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>52</v>
-      </c>
+      <c r="A18" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="18"/>
       <c r="AC18" s="27"/>
@@ -3099,9 +3104,11 @@
       <c r="AJ18" s="27"/>
     </row>
     <row r="19" spans="1:36" ht="15" customHeight="1">
-      <c r="A19" s="79"/>
+      <c r="A19" s="44" t="s">
+        <v>26</v>
+      </c>
       <c r="B19" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="18"/>
@@ -3110,9 +3117,9 @@
       <c r="AJ19" s="27"/>
     </row>
     <row r="20" spans="1:36" ht="15" customHeight="1">
-      <c r="A20" s="79"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="17" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="18"/>
@@ -3121,10 +3128,9 @@
       <c r="AJ20" s="27"/>
     </row>
     <row r="21" spans="1:36" ht="15" customHeight="1">
-      <c r="A21" s="79"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17" t="s">
-        <v>50</v>
+      <c r="A21" s="43"/>
+      <c r="B21" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="18"/>
@@ -3133,8 +3139,11 @@
       <c r="AJ21" s="27"/>
     </row>
     <row r="22" spans="1:36" ht="15" customHeight="1">
-      <c r="A22" s="79"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="17"/>
+      <c r="C22" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="G22" s="17"/>
       <c r="H22" s="18"/>
       <c r="AC22" s="27"/>
@@ -3142,9 +3151,7 @@
       <c r="AJ22" s="27"/>
     </row>
     <row r="23" spans="1:36" ht="15" customHeight="1">
-      <c r="A23" s="78" t="s">
-        <v>51</v>
-      </c>
+      <c r="A23" s="43"/>
       <c r="B23" s="17"/>
       <c r="G23" s="17"/>
       <c r="H23" s="18"/>
@@ -3153,12 +3160,10 @@
       <c r="AJ23" s="27"/>
     </row>
     <row r="24" spans="1:36" ht="15" customHeight="1">
-      <c r="A24" s="80" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>53</v>
-      </c>
+      <c r="A24" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="17"/>
       <c r="G24" s="17"/>
       <c r="H24" s="18"/>
       <c r="AC24" s="27"/>
@@ -3166,8 +3171,12 @@
       <c r="AJ24" s="27"/>
     </row>
     <row r="25" spans="1:36" ht="15" customHeight="1">
-      <c r="A25" s="79"/>
-      <c r="B25" s="17"/>
+      <c r="A25" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>93</v>
+      </c>
       <c r="G25" s="17"/>
       <c r="H25" s="18"/>
       <c r="AC25" s="27"/>
@@ -3175,12 +3184,8 @@
       <c r="AJ25" s="27"/>
     </row>
     <row r="26" spans="1:36" ht="15" customHeight="1">
-      <c r="A26" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>54</v>
-      </c>
+      <c r="A26" s="43"/>
+      <c r="B26" s="17"/>
       <c r="G26" s="17"/>
       <c r="H26" s="18"/>
       <c r="AC26" s="27"/>
@@ -3188,9 +3193,11 @@
       <c r="AJ26" s="27"/>
     </row>
     <row r="27" spans="1:36" ht="15" customHeight="1">
-      <c r="A27" s="79"/>
+      <c r="A27" s="44" t="s">
+        <v>27</v>
+      </c>
       <c r="B27" s="17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="18"/>
@@ -3199,10 +3206,9 @@
       <c r="AJ27" s="27"/>
     </row>
     <row r="28" spans="1:36" ht="15" customHeight="1">
-      <c r="A28" s="79"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17" t="s">
-        <v>56</v>
+      <c r="A28" s="43"/>
+      <c r="B28" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="18"/>
@@ -3211,10 +3217,10 @@
       <c r="AJ28" s="27"/>
     </row>
     <row r="29" spans="1:36" ht="15" customHeight="1">
-      <c r="A29" s="79"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="17"/>
-      <c r="D29" s="17" t="s">
-        <v>57</v>
+      <c r="C29" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="18"/>
@@ -3223,10 +3229,10 @@
       <c r="AJ29" s="27"/>
     </row>
     <row r="30" spans="1:36" ht="15" customHeight="1">
-      <c r="A30" s="79"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="17"/>
-      <c r="E30" s="17" t="s">
-        <v>58</v>
+      <c r="D30" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="18"/>
@@ -3235,10 +3241,10 @@
       <c r="AJ30" s="27"/>
     </row>
     <row r="31" spans="1:36" ht="15" customHeight="1">
-      <c r="A31" s="79"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="17"/>
-      <c r="D31" s="17" t="s">
-        <v>59</v>
+      <c r="E31" s="17" t="s">
+        <v>56</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="18"/>
@@ -3247,10 +3253,10 @@
       <c r="AJ31" s="27"/>
     </row>
     <row r="32" spans="1:36" ht="15" customHeight="1">
-      <c r="A32" s="79"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="17"/>
-      <c r="E32" s="17" t="s">
-        <v>61</v>
+      <c r="D32" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="18"/>
@@ -3259,10 +3265,10 @@
       <c r="AJ32" s="27"/>
     </row>
     <row r="33" spans="1:36" ht="15" customHeight="1">
-      <c r="A33" s="79"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="17"/>
-      <c r="D33" s="17" t="s">
-        <v>60</v>
+      <c r="E33" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="G33" s="17"/>
       <c r="H33" s="18"/>
@@ -3271,10 +3277,10 @@
       <c r="AJ33" s="27"/>
     </row>
     <row r="34" spans="1:36" ht="15" customHeight="1">
-      <c r="A34" s="79"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="17"/>
-      <c r="E34" s="17" t="s">
-        <v>62</v>
+      <c r="D34" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="G34" s="17"/>
       <c r="H34" s="18"/>
@@ -3283,8 +3289,11 @@
       <c r="AJ34" s="27"/>
     </row>
     <row r="35" spans="1:36" ht="15" customHeight="1">
-      <c r="A35" s="79"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="17"/>
+      <c r="E35" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="G35" s="17"/>
       <c r="H35" s="18"/>
       <c r="AC35" s="27"/>
@@ -3292,9 +3301,7 @@
       <c r="AJ35" s="27"/>
     </row>
     <row r="36" spans="1:36" ht="15" customHeight="1">
-      <c r="A36" s="78" t="s">
-        <v>63</v>
-      </c>
+      <c r="A36" s="43"/>
       <c r="B36" s="17"/>
       <c r="G36" s="17"/>
       <c r="H36" s="18"/>
@@ -3303,12 +3310,10 @@
       <c r="AJ36" s="27"/>
     </row>
     <row r="37" spans="1:36" ht="15" customHeight="1">
-      <c r="A37" s="80" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>64</v>
-      </c>
+      <c r="A37" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="17"/>
       <c r="G37" s="17"/>
       <c r="H37" s="18"/>
       <c r="AC37" s="27"/>
@@ -3316,8 +3321,12 @@
       <c r="AJ37" s="27"/>
     </row>
     <row r="38" spans="1:36" ht="15" customHeight="1">
-      <c r="A38" s="79"/>
-      <c r="B38" s="17"/>
+      <c r="A38" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>94</v>
+      </c>
       <c r="G38" s="17"/>
       <c r="H38" s="18"/>
       <c r="AC38" s="27"/>
@@ -3325,12 +3334,8 @@
       <c r="AJ38" s="27"/>
     </row>
     <row r="39" spans="1:36" ht="15" customHeight="1">
-      <c r="A39" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>65</v>
-      </c>
+      <c r="A39" s="43"/>
+      <c r="B39" s="17"/>
       <c r="G39" s="17"/>
       <c r="H39" s="18"/>
       <c r="AC39" s="27"/>
@@ -3338,8 +3343,12 @@
       <c r="AJ39" s="27"/>
     </row>
     <row r="40" spans="1:36" ht="15" customHeight="1">
-      <c r="A40" s="79"/>
-      <c r="B40" s="17"/>
+      <c r="A40" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>62</v>
+      </c>
       <c r="G40" s="17"/>
       <c r="H40" s="18"/>
       <c r="AC40" s="27"/>
@@ -3347,12 +3356,8 @@
       <c r="AJ40" s="27"/>
     </row>
     <row r="41" spans="1:36" ht="15" customHeight="1">
-      <c r="A41" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>66</v>
-      </c>
+      <c r="A41" s="43"/>
+      <c r="B41" s="17"/>
       <c r="G41" s="17"/>
       <c r="H41" s="18"/>
       <c r="AC41" s="27"/>
@@ -3360,8 +3365,12 @@
       <c r="AJ41" s="27"/>
     </row>
     <row r="42" spans="1:36" ht="15" customHeight="1">
-      <c r="A42" s="79"/>
-      <c r="B42" s="17"/>
+      <c r="A42" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>63</v>
+      </c>
       <c r="G42" s="17"/>
       <c r="H42" s="18"/>
       <c r="AC42" s="27"/>
@@ -3369,12 +3378,8 @@
       <c r="AJ42" s="27"/>
     </row>
     <row r="43" spans="1:36" ht="15" customHeight="1">
-      <c r="A43" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>67</v>
-      </c>
+      <c r="A43" s="43"/>
+      <c r="B43" s="17"/>
       <c r="G43" s="17"/>
       <c r="H43" s="18"/>
       <c r="AC43" s="27"/>
@@ -3382,8 +3387,12 @@
       <c r="AJ43" s="27"/>
     </row>
     <row r="44" spans="1:36" ht="15" customHeight="1">
-      <c r="A44" s="79"/>
-      <c r="B44" s="17"/>
+      <c r="A44" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>64</v>
+      </c>
       <c r="G44" s="17"/>
       <c r="H44" s="18"/>
       <c r="AC44" s="27"/>
@@ -3391,12 +3400,8 @@
       <c r="AJ44" s="27"/>
     </row>
     <row r="45" spans="1:36" ht="15" customHeight="1">
-      <c r="A45" s="80" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>68</v>
-      </c>
+      <c r="A45" s="43"/>
+      <c r="B45" s="17"/>
       <c r="G45" s="17"/>
       <c r="H45" s="18"/>
       <c r="AC45" s="27"/>
@@ -3404,8 +3409,12 @@
       <c r="AJ45" s="27"/>
     </row>
     <row r="46" spans="1:36" ht="15" customHeight="1">
-      <c r="A46" s="79"/>
-      <c r="B46" s="17"/>
+      <c r="A46" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>65</v>
+      </c>
       <c r="G46" s="17"/>
       <c r="H46" s="18"/>
       <c r="AC46" s="27"/>
@@ -3413,12 +3422,8 @@
       <c r="AJ46" s="27"/>
     </row>
     <row r="47" spans="1:36" ht="15" customHeight="1">
-      <c r="A47" s="80" t="s">
-        <v>69</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>70</v>
-      </c>
+      <c r="A47" s="43"/>
+      <c r="B47" s="17"/>
       <c r="G47" s="17"/>
       <c r="H47" s="18"/>
       <c r="AC47" s="27"/>
@@ -3426,8 +3431,12 @@
       <c r="AJ47" s="27"/>
     </row>
     <row r="48" spans="1:36" ht="15" customHeight="1">
-      <c r="A48" s="79"/>
-      <c r="B48" s="17"/>
+      <c r="A48" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="G48" s="17"/>
       <c r="H48" s="18"/>
       <c r="AC48" s="27"/>
@@ -3435,12 +3444,8 @@
       <c r="AJ48" s="27"/>
     </row>
     <row r="49" spans="1:36" ht="15" customHeight="1">
-      <c r="A49" s="80" t="s">
-        <v>71</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>72</v>
-      </c>
+      <c r="A49" s="43"/>
+      <c r="B49" s="17"/>
       <c r="G49" s="17"/>
       <c r="H49" s="18"/>
       <c r="AC49" s="27"/>
@@ -3448,9 +3453,11 @@
       <c r="AJ49" s="27"/>
     </row>
     <row r="50" spans="1:36" ht="15" customHeight="1">
-      <c r="A50" s="79"/>
+      <c r="A50" s="44" t="s">
+        <v>68</v>
+      </c>
       <c r="B50" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G50" s="17"/>
       <c r="H50" s="18"/>
@@ -3459,9 +3466,9 @@
       <c r="AJ50" s="27"/>
     </row>
     <row r="51" spans="1:36" ht="15" customHeight="1">
-      <c r="A51" s="79"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G51" s="17"/>
       <c r="H51" s="18"/>
@@ -3470,9 +3477,9 @@
       <c r="AJ51" s="27"/>
     </row>
     <row r="52" spans="1:36" ht="15" customHeight="1">
-      <c r="A52" s="79"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G52" s="17"/>
       <c r="H52" s="18"/>
@@ -3481,10 +3488,9 @@
       <c r="AJ52" s="27"/>
     </row>
     <row r="53" spans="1:36" ht="15" customHeight="1">
-      <c r="A53" s="79"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17" t="s">
-        <v>76</v>
+      <c r="A53" s="43"/>
+      <c r="B53" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="G53" s="17"/>
       <c r="H53" s="18"/>
@@ -3493,10 +3499,10 @@
       <c r="AJ53" s="27"/>
     </row>
     <row r="54" spans="1:36" ht="15" customHeight="1">
-      <c r="A54" s="79"/>
+      <c r="A54" s="43"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G54" s="17"/>
       <c r="H54" s="18"/>
@@ -3505,10 +3511,10 @@
       <c r="AJ54" s="27"/>
     </row>
     <row r="55" spans="1:36" ht="15" customHeight="1">
-      <c r="A55" s="79"/>
+      <c r="A55" s="43"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G55" s="17"/>
       <c r="H55" s="18"/>
@@ -3517,10 +3523,10 @@
       <c r="AJ55" s="27"/>
     </row>
     <row r="56" spans="1:36" ht="15" customHeight="1">
-      <c r="A56" s="79"/>
+      <c r="A56" s="43"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G56" s="17"/>
       <c r="H56" s="18"/>
@@ -3529,10 +3535,10 @@
       <c r="AJ56" s="27"/>
     </row>
     <row r="57" spans="1:36" ht="15" customHeight="1">
-      <c r="A57" s="79"/>
+      <c r="A57" s="43"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G57" s="17"/>
       <c r="H57" s="18"/>
@@ -3541,9 +3547,10 @@
       <c r="AJ57" s="27"/>
     </row>
     <row r="58" spans="1:36" ht="15" customHeight="1">
-      <c r="A58" s="79"/>
-      <c r="B58" s="17" t="s">
-        <v>81</v>
+      <c r="A58" s="43"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17" t="s">
+        <v>77</v>
       </c>
       <c r="G58" s="17"/>
       <c r="H58" s="18"/>
@@ -3552,8 +3559,10 @@
       <c r="AJ58" s="27"/>
     </row>
     <row r="59" spans="1:36" ht="15" customHeight="1">
-      <c r="A59" s="79"/>
-      <c r="B59" s="17"/>
+      <c r="A59" s="43"/>
+      <c r="B59" s="17" t="s">
+        <v>78</v>
+      </c>
       <c r="G59" s="17"/>
       <c r="H59" s="18"/>
       <c r="AC59" s="27"/>
@@ -3561,9 +3570,7 @@
       <c r="AJ59" s="27"/>
     </row>
     <row r="60" spans="1:36" ht="15" customHeight="1">
-      <c r="A60" s="78" t="s">
-        <v>82</v>
-      </c>
+      <c r="A60" s="43"/>
       <c r="B60" s="17"/>
       <c r="G60" s="17"/>
       <c r="H60" s="18"/>
@@ -3572,12 +3579,10 @@
       <c r="AJ60" s="27"/>
     </row>
     <row r="61" spans="1:36" ht="15" customHeight="1">
-      <c r="A61" s="80" t="s">
-        <v>26</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>83</v>
-      </c>
+      <c r="A61" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="17"/>
       <c r="G61" s="17"/>
       <c r="H61" s="18"/>
       <c r="AC61" s="27"/>
@@ -3585,8 +3590,12 @@
       <c r="AJ61" s="27"/>
     </row>
     <row r="62" spans="1:36" ht="15" customHeight="1">
-      <c r="A62" s="79"/>
-      <c r="B62" s="17"/>
+      <c r="A62" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>80</v>
+      </c>
       <c r="G62" s="17"/>
       <c r="H62" s="18"/>
       <c r="AC62" s="27"/>
@@ -3594,12 +3603,8 @@
       <c r="AJ62" s="27"/>
     </row>
     <row r="63" spans="1:36" ht="15" customHeight="1">
-      <c r="A63" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>84</v>
-      </c>
+      <c r="A63" s="43"/>
+      <c r="B63" s="17"/>
       <c r="G63" s="17"/>
       <c r="H63" s="18"/>
       <c r="AC63" s="27"/>
@@ -3607,9 +3612,11 @@
       <c r="AJ63" s="27"/>
     </row>
     <row r="64" spans="1:36" ht="15" customHeight="1">
-      <c r="A64" s="79"/>
+      <c r="A64" s="44" t="s">
+        <v>27</v>
+      </c>
       <c r="B64" s="17" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G64" s="17"/>
       <c r="H64" s="18"/>
@@ -3618,9 +3625,9 @@
       <c r="AJ64" s="27"/>
     </row>
     <row r="65" spans="1:36" ht="15" customHeight="1">
-      <c r="A65" s="79"/>
+      <c r="A65" s="43"/>
       <c r="B65" s="17" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="G65" s="17"/>
       <c r="H65" s="18"/>
@@ -3629,10 +3636,9 @@
       <c r="AJ65" s="27"/>
     </row>
     <row r="66" spans="1:36" ht="15" customHeight="1">
-      <c r="A66" s="79"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17" t="s">
-        <v>86</v>
+      <c r="A66" s="43"/>
+      <c r="B66" s="17" t="s">
+        <v>82</v>
       </c>
       <c r="G66" s="17"/>
       <c r="H66" s="18"/>
@@ -3641,9 +3647,10 @@
       <c r="AJ66" s="27"/>
     </row>
     <row r="67" spans="1:36" ht="15" customHeight="1">
-      <c r="A67" s="79"/>
-      <c r="B67" s="17" t="s">
-        <v>87</v>
+      <c r="A67" s="43"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="G67" s="17"/>
       <c r="H67" s="18"/>
@@ -3652,10 +3659,9 @@
       <c r="AJ67" s="27"/>
     </row>
     <row r="68" spans="1:36" ht="15" customHeight="1">
-      <c r="A68" s="79"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17" t="s">
-        <v>88</v>
+      <c r="A68" s="43"/>
+      <c r="B68" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="G68" s="17"/>
       <c r="H68" s="18"/>
@@ -3664,9 +3670,10 @@
       <c r="AJ68" s="27"/>
     </row>
     <row r="69" spans="1:36" ht="15" customHeight="1">
-      <c r="A69" s="79"/>
-      <c r="B69" s="17" t="s">
-        <v>89</v>
+      <c r="A69" s="43"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="G69" s="17"/>
       <c r="H69" s="18"/>
@@ -3675,10 +3682,9 @@
       <c r="AJ69" s="27"/>
     </row>
     <row r="70" spans="1:36" ht="15" customHeight="1">
-      <c r="A70" s="79"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17" t="s">
-        <v>90</v>
+      <c r="A70" s="43"/>
+      <c r="B70" s="17" t="s">
+        <v>86</v>
       </c>
       <c r="G70" s="17"/>
       <c r="H70" s="18"/>
@@ -3687,9 +3693,10 @@
       <c r="AJ70" s="27"/>
     </row>
     <row r="71" spans="1:36" ht="15" customHeight="1">
-      <c r="A71" s="79"/>
-      <c r="B71" s="17" t="s">
-        <v>91</v>
+      <c r="A71" s="43"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="G71" s="17"/>
       <c r="H71" s="18"/>
@@ -3698,10 +3705,9 @@
       <c r="AJ71" s="27"/>
     </row>
     <row r="72" spans="1:36" ht="15" customHeight="1">
-      <c r="A72" s="79"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17" t="s">
-        <v>92</v>
+      <c r="A72" s="43"/>
+      <c r="B72" s="17" t="s">
+        <v>88</v>
       </c>
       <c r="G72" s="17"/>
       <c r="H72" s="18"/>
@@ -3710,9 +3716,10 @@
       <c r="AJ72" s="27"/>
     </row>
     <row r="73" spans="1:36" ht="15" customHeight="1">
-      <c r="A73" s="79"/>
-      <c r="B73" s="17" t="s">
-        <v>93</v>
+      <c r="A73" s="43"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="G73" s="17"/>
       <c r="H73" s="18"/>
@@ -3721,8 +3728,10 @@
       <c r="AJ73" s="27"/>
     </row>
     <row r="74" spans="1:36" ht="15" customHeight="1">
-      <c r="A74" s="79"/>
-      <c r="B74" s="17"/>
+      <c r="A74" s="43"/>
+      <c r="B74" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="G74" s="17"/>
       <c r="H74" s="18"/>
       <c r="AC74" s="27"/>
@@ -3730,12 +3739,8 @@
       <c r="AJ74" s="27"/>
     </row>
     <row r="75" spans="1:36" ht="15" customHeight="1">
-      <c r="A75" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="B75" s="17" t="s">
-        <v>94</v>
-      </c>
+      <c r="A75" s="43"/>
+      <c r="B75" s="17"/>
       <c r="G75" s="17"/>
       <c r="H75" s="18"/>
       <c r="AC75" s="27"/>
@@ -3743,45 +3748,63 @@
       <c r="AJ75" s="27"/>
     </row>
     <row r="76" spans="1:36" ht="15" customHeight="1">
-      <c r="A76" s="28"/>
-      <c r="B76" s="29"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="30"/>
-      <c r="F76" s="30"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="30"/>
-      <c r="I76" s="30"/>
-      <c r="J76" s="30"/>
-      <c r="K76" s="30"/>
-      <c r="L76" s="30"/>
-      <c r="M76" s="30"/>
-      <c r="N76" s="30"/>
-      <c r="O76" s="30"/>
-      <c r="P76" s="30"/>
-      <c r="Q76" s="30"/>
-      <c r="R76" s="30"/>
-      <c r="S76" s="30"/>
-      <c r="T76" s="30"/>
-      <c r="U76" s="30"/>
-      <c r="V76" s="30"/>
-      <c r="W76" s="30"/>
-      <c r="X76" s="30"/>
-      <c r="Y76" s="30"/>
-      <c r="Z76" s="30"/>
-      <c r="AA76" s="30"/>
-      <c r="AB76" s="30"/>
-      <c r="AC76" s="31"/>
-      <c r="AD76" s="28"/>
-      <c r="AE76" s="30"/>
-      <c r="AF76" s="30"/>
-      <c r="AG76" s="30"/>
-      <c r="AH76" s="30"/>
-      <c r="AI76" s="30"/>
-      <c r="AJ76" s="31"/>
+      <c r="A76" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G76" s="17"/>
+      <c r="H76" s="18"/>
+      <c r="AC76" s="27"/>
+      <c r="AD76" s="26"/>
+      <c r="AJ76" s="27"/>
+    </row>
+    <row r="77" spans="1:36" ht="15" customHeight="1">
+      <c r="A77" s="28"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="30"/>
+      <c r="L77" s="30"/>
+      <c r="M77" s="30"/>
+      <c r="N77" s="30"/>
+      <c r="O77" s="30"/>
+      <c r="P77" s="30"/>
+      <c r="Q77" s="30"/>
+      <c r="R77" s="30"/>
+      <c r="S77" s="30"/>
+      <c r="T77" s="30"/>
+      <c r="U77" s="30"/>
+      <c r="V77" s="30"/>
+      <c r="W77" s="30"/>
+      <c r="X77" s="30"/>
+      <c r="Y77" s="30"/>
+      <c r="Z77" s="30"/>
+      <c r="AA77" s="30"/>
+      <c r="AB77" s="30"/>
+      <c r="AC77" s="31"/>
+      <c r="AD77" s="28"/>
+      <c r="AE77" s="30"/>
+      <c r="AF77" s="30"/>
+      <c r="AG77" s="30"/>
+      <c r="AH77" s="30"/>
+      <c r="AI77" s="30"/>
+      <c r="AJ77" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I2:X2"/>
+    <mergeCell ref="I1:X1"/>
+    <mergeCell ref="E2:H2"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AG2:AJ2"/>
     <mergeCell ref="AA1:AD1"/>
@@ -3790,15 +3813,10 @@
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I2:X2"/>
-    <mergeCell ref="I1:X1"/>
-    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>